--- a/Expresiones.xlsx
+++ b/Expresiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04F8F301-4773-4EFD-9C6D-02DB8B7C6956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCB8B6B-5352-42CB-9342-D3A79152527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B588CCB9-2A0A-4138-BC12-5F0EB2ED0379}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7239" uniqueCount="4374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7251" uniqueCount="4379">
   <si>
     <t>Capítulo</t>
   </si>
@@ -14552,6 +14552,21 @@
   </si>
   <si>
     <t>En uso de TICS, las variables P12A03B, P12A06A, P12A06B, P12A06BC cumplen condición para salto a Capítulo XIII, deben tener como respuesta No (2).  El resto de variables deben estar vacías P07 - P12</t>
+  </si>
+  <si>
+    <t>PPA01A no es vacio y PPA03 &gt;= 18 Y (P10C21 esta en (5,6) o P10D07 esta en (5,6)) y (P14A01 = 2 O P14A01 es vacio)</t>
+  </si>
+  <si>
+    <t>PPA01A no es vacio y PPA03 &gt;= 18 Y (P10C21 esta en (7,8) o P10D07 esta en (7,8)) y (P16A01 = 2 O P16A01 es vacio)</t>
+  </si>
+  <si>
+    <t>CA100100</t>
+  </si>
+  <si>
+    <t>Indicó que es trabajador por cuenta propia no agrícola en capítulo 10 sección C o en la sección D, pero no respondió o dijo que en el hogar no hay negocio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicó que es trabajador por cuenta propia agrícola en capítulo 10 sección C o en la sección D, pero no respondió o dijo que en el hogar no se han criado animales. </t>
   </si>
 </sst>
 </file>
@@ -14903,10 +14918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6571FF36-7749-4D70-9215-D573A0FA0E2B}">
-  <dimension ref="A1:L893"/>
+  <dimension ref="A1:L895"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A882" workbookViewId="0">
+      <selection activeCell="F896" sqref="F896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46292,6 +46307,64 @@
         <v>323</v>
       </c>
     </row>
+    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>14</v>
+      </c>
+      <c r="B894" t="s">
+        <v>12</v>
+      </c>
+      <c r="C894">
+        <v>1</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894" t="s">
+        <v>4376</v>
+      </c>
+      <c r="F894" t="s">
+        <v>4377</v>
+      </c>
+      <c r="H894" t="s">
+        <v>4374</v>
+      </c>
+      <c r="J894" t="s">
+        <v>4364</v>
+      </c>
+      <c r="L894" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>16</v>
+      </c>
+      <c r="B895" t="s">
+        <v>12</v>
+      </c>
+      <c r="C895">
+        <v>1</v>
+      </c>
+      <c r="D895">
+        <v>1</v>
+      </c>
+      <c r="E895" t="s">
+        <v>4376</v>
+      </c>
+      <c r="F895" t="s">
+        <v>4378</v>
+      </c>
+      <c r="H895" t="s">
+        <v>4375</v>
+      </c>
+      <c r="J895" t="s">
+        <v>4364</v>
+      </c>
+      <c r="L895" t="s">
+        <v>995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Expresiones.xlsx
+++ b/Expresiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCB8B6B-5352-42CB-9342-D3A79152527D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF1DC9-65EC-4BF7-95C8-0D253C18BEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B588CCB9-2A0A-4138-BC12-5F0EB2ED0379}"/>
   </bookViews>
@@ -14921,7 +14921,7 @@
   <dimension ref="A1:L895"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A882" workbookViewId="0">
-      <selection activeCell="F896" sqref="F896"/>
+      <selection activeCell="F894" sqref="F894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Expresiones.xlsx
+++ b/Expresiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71AF1DC9-65EC-4BF7-95C8-0D253C18BEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09B6393-8276-42DC-8133-D65B67C8A6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B588CCB9-2A0A-4138-BC12-5F0EB2ED0379}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7251" uniqueCount="4379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7252" uniqueCount="4380">
   <si>
     <t>Capítulo</t>
   </si>
@@ -14568,6 +14568,9 @@
   <si>
     <t xml:space="preserve">Indicó que es trabajador por cuenta propia agrícola en capítulo 10 sección C o en la sección D, pero no respondió o dijo que en el hogar no se han criado animales. </t>
   </si>
+  <si>
+    <t>agrgar semi negacion de la primera de luis</t>
+  </si>
 </sst>
 </file>
 
@@ -14582,12 +14585,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -14602,8 +14611,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14918,10 +14928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6571FF36-7749-4D70-9215-D573A0FA0E2B}">
-  <dimension ref="A1:L895"/>
+  <dimension ref="A1:L898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A882" workbookViewId="0">
-      <selection activeCell="F894" sqref="F894"/>
+    <sheetView tabSelected="1" topLeftCell="A868" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G887" sqref="G887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46307,65 +46317,71 @@
         <v>323</v>
       </c>
     </row>
-    <row r="894" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A894">
+    <row r="894" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A894" s="1">
         <v>14</v>
       </c>
-      <c r="B894" t="s">
+      <c r="B894" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C894">
-        <v>1</v>
-      </c>
-      <c r="D894">
-        <v>1</v>
-      </c>
-      <c r="E894" t="s">
+      <c r="C894" s="1">
+        <v>1</v>
+      </c>
+      <c r="D894" s="1">
+        <v>1</v>
+      </c>
+      <c r="E894" s="1" t="s">
         <v>4376</v>
       </c>
-      <c r="F894" t="s">
+      <c r="F894" s="1" t="s">
         <v>4377</v>
       </c>
-      <c r="H894" t="s">
+      <c r="H894" s="1" t="s">
         <v>4374</v>
       </c>
-      <c r="J894" t="s">
+      <c r="J894" s="1" t="s">
         <v>4364</v>
       </c>
-      <c r="L894" t="s">
+      <c r="L894" s="1" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="895" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A895">
+    <row r="895" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A895" s="1">
         <v>16</v>
       </c>
-      <c r="B895" t="s">
+      <c r="B895" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C895">
-        <v>1</v>
-      </c>
-      <c r="D895">
-        <v>1</v>
-      </c>
-      <c r="E895" t="s">
+      <c r="C895" s="1">
+        <v>1</v>
+      </c>
+      <c r="D895" s="1">
+        <v>1</v>
+      </c>
+      <c r="E895" s="1" t="s">
         <v>4376</v>
       </c>
-      <c r="F895" t="s">
+      <c r="F895" s="1" t="s">
         <v>4378</v>
       </c>
-      <c r="H895" t="s">
+      <c r="H895" s="1" t="s">
         <v>4375</v>
       </c>
-      <c r="J895" t="s">
+      <c r="J895" s="1" t="s">
         <v>4364</v>
       </c>
-      <c r="L895" t="s">
+      <c r="L895" s="1" t="s">
         <v>995</v>
+      </c>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C898" t="s">
+        <v>4379</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Expresiones.xlsx
+++ b/Expresiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895BD8A6-ECD8-4D2A-AB32-B78A7B999999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D81C9-BE1E-45F5-BDC8-FF8AFCA75628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63F1D9FA-422E-43ED-AFE6-D09079F0EF12}"/>
   </bookViews>
@@ -13564,9 +13564,6 @@
     <t>Dijo no criar animales en el hogar pero había indicado dedicarse a actividades agropecuarias.</t>
   </si>
   <si>
-    <t>PPA03 &gt;= 18 &amp; (P10C21 está en (7,8) o P10D07 está en (7,8)) y (P16A01 = 2 o P16A01 es vacío)</t>
-  </si>
-  <si>
     <t>11C00502</t>
   </si>
   <si>
@@ -17009,7 +17006,10 @@
 CP - Codigo de Persona</t>
   </si>
   <si>
-    <t>PPA03 &gt;= 18 &amp; (P10C21 está en (5,6) o P10D07 está en (5,6)) y (P14A01 = 2 o P14A01 es vacío)</t>
+    <t>PPA03 &gt;= 18 &amp; CP no es vacio &amp; (P10C21 está en (5,6) o P10D07 está en (5,6) o P10C47 &gt; 0) y (P14A01 = 2 o P14A01 es vacío)</t>
+  </si>
+  <si>
+    <t>PPA03 &gt;= 18 &amp; (P10C21 está en (7,8) o P10D07 está en (7,8) o P10C48 &gt; 0 ) y (P16A01 = 2 o P16A01 es vacío)</t>
   </si>
 </sst>
 </file>
@@ -17369,7 +17369,7 @@
   <dimension ref="A1:L1056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K871" sqref="K871"/>
+      <selection activeCell="H840" sqref="H840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46790,7 +46790,7 @@
         <v>4111</v>
       </c>
       <c r="H839" t="s">
-        <v>5146</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.25">
@@ -46816,7 +46816,7 @@
         <v>4113</v>
       </c>
       <c r="H840" t="s">
-        <v>4114</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="841" spans="1:12" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -46833,16 +46833,16 @@
         <v>2</v>
       </c>
       <c r="E841" t="s">
+        <v>4114</v>
+      </c>
+      <c r="F841" t="s">
         <v>4115</v>
       </c>
-      <c r="F841" t="s">
+      <c r="G841" t="s">
         <v>4116</v>
       </c>
-      <c r="G841" t="s">
+      <c r="H841" t="s">
         <v>4117</v>
-      </c>
-      <c r="H841" t="s">
-        <v>4118</v>
       </c>
       <c r="J841" t="s">
         <v>18</v>
@@ -46868,25 +46868,25 @@
         <v>1</v>
       </c>
       <c r="E842" t="s">
+        <v>4118</v>
+      </c>
+      <c r="F842" t="s">
         <v>4119</v>
       </c>
-      <c r="F842" t="s">
+      <c r="G842" t="s">
         <v>4120</v>
       </c>
-      <c r="G842" t="s">
+      <c r="H842" t="s">
         <v>4121</v>
       </c>
-      <c r="H842" t="s">
+      <c r="J842" t="s">
         <v>4122</v>
       </c>
-      <c r="J842" t="s">
+      <c r="K842" s="1" t="s">
         <v>4123</v>
       </c>
-      <c r="K842" s="1" t="s">
+      <c r="L842" t="s">
         <v>4124</v>
-      </c>
-      <c r="L842" t="s">
-        <v>4125</v>
       </c>
     </row>
     <row r="843" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -46903,25 +46903,25 @@
         <v>2</v>
       </c>
       <c r="E843" t="s">
+        <v>4125</v>
+      </c>
+      <c r="F843" t="s">
         <v>4126</v>
       </c>
-      <c r="F843" t="s">
+      <c r="G843" t="s">
         <v>4127</v>
       </c>
-      <c r="G843" t="s">
+      <c r="H843" t="s">
         <v>4128</v>
       </c>
-      <c r="H843" t="s">
+      <c r="J843" t="s">
         <v>4129</v>
       </c>
-      <c r="J843" t="s">
+      <c r="K843" s="1" t="s">
         <v>4130</v>
       </c>
-      <c r="K843" s="1" t="s">
-        <v>4131</v>
-      </c>
       <c r="L843" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="844" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -46938,25 +46938,25 @@
         <v>1</v>
       </c>
       <c r="E844" t="s">
+        <v>4131</v>
+      </c>
+      <c r="F844" t="s">
         <v>4132</v>
       </c>
-      <c r="F844" t="s">
+      <c r="G844" t="s">
         <v>4133</v>
       </c>
-      <c r="G844" t="s">
+      <c r="H844" t="s">
         <v>4134</v>
       </c>
-      <c r="H844" t="s">
+      <c r="J844" t="s">
         <v>4135</v>
       </c>
-      <c r="J844" t="s">
+      <c r="K844" s="1" t="s">
         <v>4136</v>
       </c>
-      <c r="K844" s="1" t="s">
-        <v>4137</v>
-      </c>
       <c r="L844" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="845" spans="1:12" ht="150" hidden="1" x14ac:dyDescent="0.25">
@@ -46973,25 +46973,25 @@
         <v>2</v>
       </c>
       <c r="E845" t="s">
+        <v>4137</v>
+      </c>
+      <c r="F845" t="s">
         <v>4138</v>
       </c>
-      <c r="F845" t="s">
+      <c r="G845" t="s">
         <v>4139</v>
       </c>
-      <c r="G845" t="s">
+      <c r="H845" t="s">
         <v>4140</v>
       </c>
-      <c r="H845" t="s">
-        <v>4141</v>
-      </c>
       <c r="J845" t="s">
+        <v>4135</v>
+      </c>
+      <c r="K845" s="1" t="s">
         <v>4136</v>
       </c>
-      <c r="K845" s="1" t="s">
-        <v>4137</v>
-      </c>
       <c r="L845" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="846" spans="1:12" ht="390" hidden="1" x14ac:dyDescent="0.25">
@@ -47008,25 +47008,25 @@
         <v>1</v>
       </c>
       <c r="E846" t="s">
+        <v>4141</v>
+      </c>
+      <c r="F846" t="s">
         <v>4142</v>
       </c>
-      <c r="F846" t="s">
+      <c r="G846" t="s">
         <v>4143</v>
       </c>
-      <c r="G846" t="s">
+      <c r="H846" t="s">
         <v>4144</v>
       </c>
-      <c r="H846" t="s">
+      <c r="J846" t="s">
         <v>4145</v>
       </c>
-      <c r="J846" t="s">
+      <c r="K846" s="1" t="s">
         <v>4146</v>
       </c>
-      <c r="K846" s="1" t="s">
-        <v>4147</v>
-      </c>
       <c r="L846" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="847" spans="1:12" ht="390" hidden="1" x14ac:dyDescent="0.25">
@@ -47043,25 +47043,25 @@
         <v>2</v>
       </c>
       <c r="E847" t="s">
+        <v>4147</v>
+      </c>
+      <c r="F847" t="s">
         <v>4148</v>
       </c>
-      <c r="F847" t="s">
+      <c r="G847" t="s">
         <v>4149</v>
       </c>
-      <c r="G847" t="s">
+      <c r="H847" t="s">
         <v>4150</v>
       </c>
-      <c r="H847" t="s">
-        <v>4151</v>
-      </c>
       <c r="J847" t="s">
+        <v>4145</v>
+      </c>
+      <c r="K847" s="1" t="s">
         <v>4146</v>
       </c>
-      <c r="K847" s="1" t="s">
-        <v>4147</v>
-      </c>
       <c r="L847" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="848" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
@@ -47078,25 +47078,25 @@
         <v>1</v>
       </c>
       <c r="E848" t="s">
+        <v>4151</v>
+      </c>
+      <c r="F848" t="s">
         <v>4152</v>
       </c>
-      <c r="F848" t="s">
+      <c r="G848" t="s">
         <v>4153</v>
       </c>
-      <c r="G848" t="s">
+      <c r="H848" t="s">
         <v>4154</v>
       </c>
-      <c r="H848" t="s">
+      <c r="J848" t="s">
         <v>4155</v>
       </c>
-      <c r="J848" t="s">
+      <c r="K848" s="1" t="s">
         <v>4156</v>
       </c>
-      <c r="K848" s="1" t="s">
-        <v>4157</v>
-      </c>
       <c r="L848" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="849" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -47113,25 +47113,25 @@
         <v>1</v>
       </c>
       <c r="E849" t="s">
+        <v>4157</v>
+      </c>
+      <c r="F849" t="s">
         <v>4158</v>
       </c>
-      <c r="F849" t="s">
+      <c r="G849" t="s">
         <v>4159</v>
       </c>
-      <c r="G849" t="s">
+      <c r="H849" t="s">
         <v>4160</v>
       </c>
-      <c r="H849" t="s">
+      <c r="J849" t="s">
         <v>4161</v>
       </c>
-      <c r="J849" t="s">
+      <c r="K849" s="1" t="s">
         <v>4162</v>
       </c>
-      <c r="K849" s="1" t="s">
-        <v>4163</v>
-      </c>
       <c r="L849" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="850" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -47148,25 +47148,25 @@
         <v>2</v>
       </c>
       <c r="E850" t="s">
+        <v>4163</v>
+      </c>
+      <c r="F850" t="s">
         <v>4164</v>
       </c>
-      <c r="F850" t="s">
+      <c r="G850" t="s">
         <v>4165</v>
       </c>
-      <c r="G850" t="s">
+      <c r="H850" t="s">
         <v>4166</v>
       </c>
-      <c r="H850" t="s">
-        <v>4167</v>
-      </c>
       <c r="J850" t="s">
+        <v>4161</v>
+      </c>
+      <c r="K850" s="1" t="s">
         <v>4162</v>
       </c>
-      <c r="K850" s="1" t="s">
-        <v>4163</v>
-      </c>
       <c r="L850" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="851" spans="1:12" ht="225" hidden="1" x14ac:dyDescent="0.25">
@@ -47183,25 +47183,25 @@
         <v>1</v>
       </c>
       <c r="E851" t="s">
+        <v>4167</v>
+      </c>
+      <c r="F851" t="s">
         <v>4168</v>
       </c>
-      <c r="F851" t="s">
+      <c r="G851" t="s">
         <v>4169</v>
       </c>
-      <c r="G851" t="s">
+      <c r="H851" t="s">
         <v>4170</v>
       </c>
-      <c r="H851" t="s">
+      <c r="J851" t="s">
         <v>4171</v>
       </c>
-      <c r="J851" t="s">
+      <c r="K851" s="1" t="s">
         <v>4172</v>
       </c>
-      <c r="K851" s="1" t="s">
-        <v>4173</v>
-      </c>
       <c r="L851" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="852" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
@@ -47218,25 +47218,25 @@
         <v>2</v>
       </c>
       <c r="E852" t="s">
+        <v>4173</v>
+      </c>
+      <c r="F852" t="s">
         <v>4174</v>
       </c>
-      <c r="F852" t="s">
+      <c r="G852" t="s">
         <v>4175</v>
       </c>
-      <c r="G852" t="s">
+      <c r="H852" t="s">
         <v>4176</v>
       </c>
-      <c r="H852" t="s">
+      <c r="J852" t="s">
         <v>4177</v>
       </c>
-      <c r="J852" t="s">
+      <c r="K852" s="1" t="s">
         <v>4178</v>
       </c>
-      <c r="K852" s="1" t="s">
-        <v>4179</v>
-      </c>
       <c r="L852" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="853" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
@@ -47253,25 +47253,25 @@
         <v>3</v>
       </c>
       <c r="E853" t="s">
+        <v>4179</v>
+      </c>
+      <c r="F853" t="s">
         <v>4180</v>
       </c>
-      <c r="F853" t="s">
+      <c r="G853" t="s">
         <v>4181</v>
       </c>
-      <c r="G853" t="s">
+      <c r="H853" t="s">
         <v>4182</v>
       </c>
-      <c r="H853" t="s">
+      <c r="J853" t="s">
         <v>4183</v>
       </c>
-      <c r="J853" t="s">
+      <c r="K853" s="1" t="s">
         <v>4184</v>
       </c>
-      <c r="K853" s="1" t="s">
-        <v>4185</v>
-      </c>
       <c r="L853" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -47288,25 +47288,25 @@
         <v>2</v>
       </c>
       <c r="E854" t="s">
+        <v>4185</v>
+      </c>
+      <c r="F854" t="s">
         <v>4186</v>
       </c>
-      <c r="F854" t="s">
+      <c r="G854" t="s">
         <v>4187</v>
       </c>
-      <c r="G854" t="s">
+      <c r="H854" t="s">
         <v>4188</v>
       </c>
-      <c r="H854" t="s">
+      <c r="J854" t="s">
         <v>4189</v>
       </c>
-      <c r="J854" t="s">
+      <c r="K854" t="s">
         <v>4190</v>
       </c>
-      <c r="K854" t="s">
-        <v>4191</v>
-      </c>
       <c r="L854" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="855" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -47323,25 +47323,25 @@
         <v>1</v>
       </c>
       <c r="E855" t="s">
+        <v>4191</v>
+      </c>
+      <c r="F855" t="s">
         <v>4192</v>
       </c>
-      <c r="F855" t="s">
+      <c r="G855" t="s">
         <v>4193</v>
       </c>
-      <c r="G855" t="s">
+      <c r="H855" t="s">
         <v>4194</v>
       </c>
-      <c r="H855" t="s">
+      <c r="J855" t="s">
         <v>4195</v>
       </c>
-      <c r="J855" t="s">
+      <c r="K855" s="1" t="s">
         <v>4196</v>
       </c>
-      <c r="K855" s="1" t="s">
+      <c r="L855" t="s">
         <v>4197</v>
-      </c>
-      <c r="L855" t="s">
-        <v>4198</v>
       </c>
     </row>
     <row r="856" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -47358,25 +47358,25 @@
         <v>3</v>
       </c>
       <c r="E856" t="s">
+        <v>4198</v>
+      </c>
+      <c r="F856" t="s">
         <v>4199</v>
       </c>
-      <c r="F856" t="s">
+      <c r="G856" t="s">
         <v>4200</v>
       </c>
-      <c r="G856" t="s">
+      <c r="H856" t="s">
         <v>4201</v>
       </c>
-      <c r="H856" t="s">
+      <c r="J856" t="s">
         <v>4202</v>
       </c>
-      <c r="J856" t="s">
+      <c r="K856" s="1" t="s">
         <v>4203</v>
       </c>
-      <c r="K856" s="1" t="s">
-        <v>4204</v>
-      </c>
       <c r="L856" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="857" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
@@ -47393,25 +47393,25 @@
         <v>10</v>
       </c>
       <c r="E857" t="s">
+        <v>4204</v>
+      </c>
+      <c r="F857" t="s">
         <v>4205</v>
       </c>
-      <c r="F857" t="s">
+      <c r="G857" t="s">
         <v>4206</v>
       </c>
-      <c r="G857" t="s">
+      <c r="H857" t="s">
         <v>4207</v>
       </c>
-      <c r="H857" t="s">
+      <c r="J857" t="s">
         <v>4208</v>
       </c>
-      <c r="J857" t="s">
+      <c r="K857" s="1" t="s">
         <v>4209</v>
       </c>
-      <c r="K857" s="1" t="s">
-        <v>4210</v>
-      </c>
       <c r="L857" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="858" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -47428,25 +47428,25 @@
         <v>1</v>
       </c>
       <c r="E858" t="s">
+        <v>4210</v>
+      </c>
+      <c r="F858" t="s">
         <v>4211</v>
       </c>
-      <c r="F858" t="s">
+      <c r="G858" t="s">
         <v>4212</v>
       </c>
-      <c r="G858" t="s">
+      <c r="H858" t="s">
         <v>4213</v>
       </c>
-      <c r="H858" t="s">
+      <c r="J858" t="s">
         <v>4214</v>
       </c>
-      <c r="J858" t="s">
+      <c r="K858" s="1" t="s">
         <v>4215</v>
       </c>
-      <c r="K858" s="1" t="s">
-        <v>4216</v>
-      </c>
       <c r="L858" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="859" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
@@ -47463,25 +47463,25 @@
         <v>9</v>
       </c>
       <c r="E859" t="s">
+        <v>4216</v>
+      </c>
+      <c r="F859" t="s">
         <v>4217</v>
       </c>
-      <c r="F859" t="s">
+      <c r="G859" t="s">
         <v>4218</v>
       </c>
-      <c r="G859" t="s">
+      <c r="H859" t="s">
         <v>4219</v>
       </c>
-      <c r="H859" t="s">
+      <c r="J859" t="s">
         <v>4220</v>
       </c>
-      <c r="J859" t="s">
-        <v>4221</v>
-      </c>
       <c r="K859" s="1" t="s">
-        <v>4210</v>
+        <v>4209</v>
       </c>
       <c r="L859" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="860" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
@@ -47498,25 +47498,25 @@
         <v>1</v>
       </c>
       <c r="E860" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F860" s="1" t="s">
         <v>4222</v>
       </c>
-      <c r="F860" s="1" t="s">
+      <c r="G860" s="1" t="s">
         <v>4223</v>
       </c>
-      <c r="G860" s="1" t="s">
+      <c r="H860" t="s">
         <v>4224</v>
       </c>
-      <c r="H860" t="s">
+      <c r="J860" t="s">
         <v>4225</v>
       </c>
-      <c r="J860" t="s">
+      <c r="K860" s="1" t="s">
         <v>4226</v>
       </c>
-      <c r="K860" s="1" t="s">
-        <v>4227</v>
-      </c>
       <c r="L860" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="861" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -47533,25 +47533,25 @@
         <v>1</v>
       </c>
       <c r="E861" t="s">
+        <v>4227</v>
+      </c>
+      <c r="F861" t="s">
         <v>4228</v>
       </c>
-      <c r="F861" t="s">
+      <c r="G861" t="s">
         <v>4229</v>
       </c>
-      <c r="G861" t="s">
+      <c r="H861" t="s">
         <v>4230</v>
-      </c>
-      <c r="H861" t="s">
-        <v>4231</v>
       </c>
       <c r="J861" t="s">
         <v>18</v>
       </c>
       <c r="K861" s="1" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="L861" t="s">
-        <v>4198</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="862" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -47568,19 +47568,19 @@
         <v>1</v>
       </c>
       <c r="E862" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F862" t="s">
         <v>4233</v>
       </c>
-      <c r="F862" t="s">
+      <c r="G862" t="s">
         <v>4234</v>
       </c>
-      <c r="G862" t="s">
+      <c r="H862" t="s">
         <v>4235</v>
       </c>
-      <c r="H862" t="s">
-        <v>4236</v>
-      </c>
       <c r="L862" t="s">
-        <v>4125</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="863" spans="1:12" ht="210" hidden="1" x14ac:dyDescent="0.25">
@@ -47597,22 +47597,22 @@
         <v>1</v>
       </c>
       <c r="E863" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F863" t="s">
         <v>4237</v>
       </c>
-      <c r="F863" t="s">
+      <c r="G863" t="s">
         <v>4238</v>
       </c>
-      <c r="G863" t="s">
+      <c r="H863" t="s">
         <v>4239</v>
       </c>
-      <c r="H863" t="s">
+      <c r="J863" t="s">
         <v>4240</v>
       </c>
-      <c r="J863" t="s">
+      <c r="K863" s="1" t="s">
         <v>4241</v>
-      </c>
-      <c r="K863" s="1" t="s">
-        <v>4242</v>
       </c>
       <c r="L863" t="s">
         <v>994</v>
@@ -47632,22 +47632,22 @@
         <v>2</v>
       </c>
       <c r="E864" t="s">
+        <v>4242</v>
+      </c>
+      <c r="F864" t="s">
         <v>4243</v>
       </c>
-      <c r="F864" t="s">
+      <c r="G864" t="s">
         <v>4244</v>
       </c>
-      <c r="G864" t="s">
+      <c r="H864" t="s">
         <v>4245</v>
       </c>
-      <c r="H864" t="s">
-        <v>4246</v>
-      </c>
       <c r="J864" t="s">
+        <v>4240</v>
+      </c>
+      <c r="K864" s="1" t="s">
         <v>4241</v>
-      </c>
-      <c r="K864" s="1" t="s">
-        <v>4242</v>
       </c>
       <c r="L864" t="s">
         <v>994</v>
@@ -47667,22 +47667,22 @@
         <v>1</v>
       </c>
       <c r="E865" t="s">
+        <v>4246</v>
+      </c>
+      <c r="F865" t="s">
         <v>4247</v>
       </c>
-      <c r="F865" t="s">
+      <c r="G865" t="s">
         <v>4248</v>
       </c>
-      <c r="G865" t="s">
+      <c r="H865" t="s">
         <v>4249</v>
       </c>
-      <c r="H865" t="s">
+      <c r="J865" t="s">
         <v>4250</v>
       </c>
-      <c r="J865" t="s">
+      <c r="K865" s="1" t="s">
         <v>4251</v>
-      </c>
-      <c r="K865" s="1" t="s">
-        <v>4252</v>
       </c>
       <c r="L865" t="s">
         <v>994</v>
@@ -47702,22 +47702,22 @@
         <v>1</v>
       </c>
       <c r="E866" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F866" t="s">
         <v>4253</v>
       </c>
-      <c r="F866" t="s">
+      <c r="G866" t="s">
         <v>4254</v>
       </c>
-      <c r="G866" t="s">
+      <c r="H866" t="s">
         <v>4255</v>
       </c>
-      <c r="H866" t="s">
-        <v>4256</v>
-      </c>
       <c r="J866" t="s">
+        <v>4250</v>
+      </c>
+      <c r="K866" s="1" t="s">
         <v>4251</v>
-      </c>
-      <c r="K866" s="1" t="s">
-        <v>4252</v>
       </c>
       <c r="L866" t="s">
         <v>994</v>
@@ -47737,22 +47737,22 @@
         <v>1</v>
       </c>
       <c r="E867" t="s">
+        <v>4256</v>
+      </c>
+      <c r="F867" t="s">
         <v>4257</v>
       </c>
-      <c r="F867" t="s">
+      <c r="G867" t="s">
+        <v>4248</v>
+      </c>
+      <c r="H867" t="s">
         <v>4258</v>
       </c>
-      <c r="G867" t="s">
-        <v>4249</v>
-      </c>
-      <c r="H867" t="s">
+      <c r="J867" t="s">
         <v>4259</v>
       </c>
-      <c r="J867" t="s">
+      <c r="K867" s="1" t="s">
         <v>4260</v>
-      </c>
-      <c r="K867" s="1" t="s">
-        <v>4261</v>
       </c>
       <c r="L867" t="s">
         <v>994</v>
@@ -47772,22 +47772,22 @@
         <v>1</v>
       </c>
       <c r="E868" t="s">
+        <v>4261</v>
+      </c>
+      <c r="F868" t="s">
         <v>4262</v>
       </c>
-      <c r="F868" t="s">
+      <c r="G868" t="s">
+        <v>4254</v>
+      </c>
+      <c r="H868" t="s">
         <v>4263</v>
       </c>
-      <c r="G868" t="s">
-        <v>4255</v>
-      </c>
-      <c r="H868" t="s">
-        <v>4264</v>
-      </c>
       <c r="J868" t="s">
+        <v>4259</v>
+      </c>
+      <c r="K868" s="1" t="s">
         <v>4260</v>
-      </c>
-      <c r="K868" s="1" t="s">
-        <v>4261</v>
       </c>
       <c r="L868" t="s">
         <v>994</v>
@@ -47807,22 +47807,22 @@
         <v>1</v>
       </c>
       <c r="E869" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F869" t="s">
         <v>4265</v>
       </c>
-      <c r="F869" t="s">
+      <c r="G869" t="s">
+        <v>4248</v>
+      </c>
+      <c r="H869" t="s">
         <v>4266</v>
       </c>
-      <c r="G869" t="s">
-        <v>4249</v>
-      </c>
-      <c r="H869" t="s">
+      <c r="J869" t="s">
         <v>4267</v>
       </c>
-      <c r="J869" t="s">
+      <c r="K869" s="1" t="s">
         <v>4268</v>
-      </c>
-      <c r="K869" s="1" t="s">
-        <v>4269</v>
       </c>
       <c r="L869" t="s">
         <v>994</v>
@@ -47842,22 +47842,22 @@
         <v>1</v>
       </c>
       <c r="E870" t="s">
+        <v>4269</v>
+      </c>
+      <c r="F870" t="s">
         <v>4270</v>
       </c>
-      <c r="F870" t="s">
+      <c r="G870" t="s">
+        <v>4254</v>
+      </c>
+      <c r="H870" t="s">
         <v>4271</v>
       </c>
-      <c r="G870" t="s">
-        <v>4255</v>
-      </c>
-      <c r="H870" t="s">
-        <v>4272</v>
-      </c>
       <c r="J870" t="s">
+        <v>4267</v>
+      </c>
+      <c r="K870" s="1" t="s">
         <v>4268</v>
-      </c>
-      <c r="K870" s="1" t="s">
-        <v>4269</v>
       </c>
       <c r="L870" t="s">
         <v>994</v>
@@ -47877,22 +47877,22 @@
         <v>1</v>
       </c>
       <c r="E871" t="s">
+        <v>4272</v>
+      </c>
+      <c r="F871" t="s">
         <v>4273</v>
       </c>
-      <c r="F871" t="s">
+      <c r="G871" t="s">
+        <v>4273</v>
+      </c>
+      <c r="H871" t="s">
         <v>4274</v>
       </c>
-      <c r="G871" t="s">
-        <v>4274</v>
-      </c>
-      <c r="H871" t="s">
+      <c r="J871" t="s">
         <v>4275</v>
       </c>
-      <c r="J871" t="s">
+      <c r="K871" s="1" t="s">
         <v>4276</v>
-      </c>
-      <c r="K871" s="1" t="s">
-        <v>4277</v>
       </c>
       <c r="L871" t="s">
         <v>3595</v>
@@ -47912,25 +47912,25 @@
         <v>3</v>
       </c>
       <c r="E872" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F872" t="s">
         <v>4278</v>
-      </c>
-      <c r="F872" t="s">
-        <v>4279</v>
       </c>
       <c r="G872" t="s">
         <v>163</v>
       </c>
       <c r="H872" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="I872" t="s">
         <v>87</v>
       </c>
       <c r="J872" t="s">
+        <v>4280</v>
+      </c>
+      <c r="K872" s="1" t="s">
         <v>4281</v>
-      </c>
-      <c r="K872" s="1" t="s">
-        <v>4282</v>
       </c>
       <c r="L872" t="s">
         <v>3595</v>
@@ -47950,7 +47950,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="F873" t="s">
         <v>3823</v>
@@ -47959,16 +47959,16 @@
         <v>2176</v>
       </c>
       <c r="H873" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="I873" t="s">
         <v>87</v>
       </c>
       <c r="J873" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="K873" s="1" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="L873" t="s">
         <v>3595</v>
@@ -47988,25 +47988,25 @@
         <v>2</v>
       </c>
       <c r="E874" t="s">
+        <v>4285</v>
+      </c>
+      <c r="F874" t="s">
         <v>4286</v>
       </c>
-      <c r="F874" t="s">
+      <c r="G874" t="s">
         <v>4287</v>
       </c>
-      <c r="G874" t="s">
+      <c r="H874" t="s">
         <v>4288</v>
-      </c>
-      <c r="H874" t="s">
-        <v>4289</v>
       </c>
       <c r="I874" t="s">
         <v>87</v>
       </c>
       <c r="J874" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="K874" s="1" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="L874" t="s">
         <v>3595</v>
@@ -48026,7 +48026,7 @@
         <v>1</v>
       </c>
       <c r="E875" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="F875" t="s">
         <v>3823</v>
@@ -48035,16 +48035,16 @@
         <v>2176</v>
       </c>
       <c r="H875" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="I875" t="s">
         <v>87</v>
       </c>
       <c r="J875" t="s">
+        <v>4291</v>
+      </c>
+      <c r="K875" s="1" t="s">
         <v>4292</v>
-      </c>
-      <c r="K875" s="1" t="s">
-        <v>4293</v>
       </c>
       <c r="L875" t="s">
         <v>3595</v>
@@ -48064,25 +48064,25 @@
         <v>2</v>
       </c>
       <c r="E876" t="s">
+        <v>4293</v>
+      </c>
+      <c r="F876" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G876" t="s">
         <v>4294</v>
       </c>
-      <c r="F876" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G876" t="s">
+      <c r="H876" t="s">
         <v>4295</v>
-      </c>
-      <c r="H876" t="s">
-        <v>4296</v>
       </c>
       <c r="I876" t="s">
         <v>87</v>
       </c>
       <c r="J876" t="s">
+        <v>4291</v>
+      </c>
+      <c r="K876" s="1" t="s">
         <v>4292</v>
-      </c>
-      <c r="K876" s="1" t="s">
-        <v>4293</v>
       </c>
       <c r="L876" t="s">
         <v>3595</v>
@@ -48102,7 +48102,7 @@
         <v>3</v>
       </c>
       <c r="E877" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="F877" t="s">
         <v>3823</v>
@@ -48111,13 +48111,13 @@
         <v>2176</v>
       </c>
       <c r="H877" t="s">
+        <v>4297</v>
+      </c>
+      <c r="J877" t="s">
         <v>4298</v>
       </c>
-      <c r="J877" t="s">
+      <c r="K877" s="1" t="s">
         <v>4299</v>
-      </c>
-      <c r="K877" s="1" t="s">
-        <v>4300</v>
       </c>
       <c r="L877" t="s">
         <v>3595</v>
@@ -48137,22 +48137,22 @@
         <v>4</v>
       </c>
       <c r="E878" t="s">
+        <v>4300</v>
+      </c>
+      <c r="F878" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G878" t="s">
         <v>4301</v>
       </c>
-      <c r="F878" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G878" t="s">
+      <c r="H878" t="s">
         <v>4302</v>
       </c>
-      <c r="H878" t="s">
-        <v>4303</v>
-      </c>
       <c r="J878" t="s">
+        <v>4298</v>
+      </c>
+      <c r="K878" s="1" t="s">
         <v>4299</v>
-      </c>
-      <c r="K878" s="1" t="s">
-        <v>4300</v>
       </c>
       <c r="L878" t="s">
         <v>3595</v>
@@ -48172,7 +48172,7 @@
         <v>1</v>
       </c>
       <c r="E879" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="F879" t="s">
         <v>3823</v>
@@ -48181,16 +48181,16 @@
         <v>2176</v>
       </c>
       <c r="H879" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="I879" t="s">
         <v>87</v>
       </c>
       <c r="J879" t="s">
+        <v>4305</v>
+      </c>
+      <c r="K879" s="1" t="s">
         <v>4306</v>
-      </c>
-      <c r="K879" s="1" t="s">
-        <v>4307</v>
       </c>
       <c r="L879" t="s">
         <v>3595</v>
@@ -48210,25 +48210,25 @@
         <v>2</v>
       </c>
       <c r="E880" t="s">
+        <v>4307</v>
+      </c>
+      <c r="F880" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G880" t="s">
         <v>4308</v>
       </c>
-      <c r="F880" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G880" t="s">
+      <c r="H880" t="s">
         <v>4309</v>
-      </c>
-      <c r="H880" t="s">
-        <v>4310</v>
       </c>
       <c r="I880" t="s">
         <v>87</v>
       </c>
       <c r="J880" t="s">
+        <v>4305</v>
+      </c>
+      <c r="K880" s="1" t="s">
         <v>4306</v>
-      </c>
-      <c r="K880" s="1" t="s">
-        <v>4307</v>
       </c>
       <c r="L880" t="s">
         <v>3595</v>
@@ -48248,7 +48248,7 @@
         <v>1</v>
       </c>
       <c r="E881" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="F881" t="s">
         <v>3823</v>
@@ -48257,16 +48257,16 @@
         <v>2176</v>
       </c>
       <c r="H881" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="I881" t="s">
         <v>87</v>
       </c>
       <c r="J881" t="s">
+        <v>4312</v>
+      </c>
+      <c r="K881" s="1" t="s">
         <v>4313</v>
-      </c>
-      <c r="K881" s="1" t="s">
-        <v>4314</v>
       </c>
       <c r="L881" t="s">
         <v>3595</v>
@@ -48286,25 +48286,25 @@
         <v>2</v>
       </c>
       <c r="E882" t="s">
+        <v>4314</v>
+      </c>
+      <c r="F882" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G882" t="s">
         <v>4315</v>
       </c>
-      <c r="F882" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G882" t="s">
+      <c r="H882" t="s">
         <v>4316</v>
-      </c>
-      <c r="H882" t="s">
-        <v>4317</v>
       </c>
       <c r="I882" t="s">
         <v>87</v>
       </c>
       <c r="J882" t="s">
+        <v>4312</v>
+      </c>
+      <c r="K882" s="1" t="s">
         <v>4313</v>
-      </c>
-      <c r="K882" s="1" t="s">
-        <v>4314</v>
       </c>
       <c r="L882" t="s">
         <v>3595</v>
@@ -48324,7 +48324,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="F883" t="s">
         <v>3823</v>
@@ -48333,16 +48333,16 @@
         <v>2176</v>
       </c>
       <c r="H883" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="I883" t="s">
         <v>87</v>
       </c>
       <c r="J883" t="s">
+        <v>4319</v>
+      </c>
+      <c r="K883" s="1" t="s">
         <v>4320</v>
-      </c>
-      <c r="K883" s="1" t="s">
-        <v>4321</v>
       </c>
       <c r="L883" t="s">
         <v>3595</v>
@@ -48362,25 +48362,25 @@
         <v>2</v>
       </c>
       <c r="E884" t="s">
+        <v>4321</v>
+      </c>
+      <c r="F884" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G884" t="s">
         <v>4322</v>
       </c>
-      <c r="F884" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G884" t="s">
+      <c r="H884" t="s">
         <v>4323</v>
-      </c>
-      <c r="H884" t="s">
-        <v>4324</v>
       </c>
       <c r="I884" t="s">
         <v>87</v>
       </c>
       <c r="J884" t="s">
+        <v>4319</v>
+      </c>
+      <c r="K884" s="1" t="s">
         <v>4320</v>
-      </c>
-      <c r="K884" s="1" t="s">
-        <v>4321</v>
       </c>
       <c r="L884" t="s">
         <v>3595</v>
@@ -48400,25 +48400,25 @@
         <v>3</v>
       </c>
       <c r="E885" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="F885" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="G885" t="s">
         <v>163</v>
       </c>
       <c r="H885" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="I885" t="s">
         <v>87</v>
       </c>
       <c r="J885" t="s">
+        <v>4319</v>
+      </c>
+      <c r="K885" s="1" t="s">
         <v>4320</v>
-      </c>
-      <c r="K885" s="1" t="s">
-        <v>4321</v>
       </c>
       <c r="L885" t="s">
         <v>3595</v>
@@ -48438,7 +48438,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
       <c r="F886" t="s">
         <v>3823</v>
@@ -48447,16 +48447,16 @@
         <v>2176</v>
       </c>
       <c r="H886" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="I886" t="s">
         <v>87</v>
       </c>
       <c r="J886" t="s">
+        <v>4328</v>
+      </c>
+      <c r="K886" s="1" t="s">
         <v>4329</v>
-      </c>
-      <c r="K886" s="1" t="s">
-        <v>4330</v>
       </c>
       <c r="L886" t="s">
         <v>3595</v>
@@ -48476,25 +48476,25 @@
         <v>2</v>
       </c>
       <c r="E887" t="s">
+        <v>4330</v>
+      </c>
+      <c r="F887" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G887" t="s">
         <v>4331</v>
       </c>
-      <c r="F887" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G887" t="s">
+      <c r="H887" t="s">
         <v>4332</v>
-      </c>
-      <c r="H887" t="s">
-        <v>4333</v>
       </c>
       <c r="I887" t="s">
         <v>87</v>
       </c>
       <c r="J887" t="s">
+        <v>4328</v>
+      </c>
+      <c r="K887" s="1" t="s">
         <v>4329</v>
-      </c>
-      <c r="K887" s="1" t="s">
-        <v>4330</v>
       </c>
       <c r="L887" t="s">
         <v>3595</v>
@@ -48514,22 +48514,22 @@
         <v>3</v>
       </c>
       <c r="E888" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="F888" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="G888" t="s">
         <v>163</v>
       </c>
       <c r="H888" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
       <c r="J888" t="s">
+        <v>4328</v>
+      </c>
+      <c r="K888" s="1" t="s">
         <v>4329</v>
-      </c>
-      <c r="K888" s="1" t="s">
-        <v>4330</v>
       </c>
       <c r="L888" t="s">
         <v>3595</v>
@@ -48549,25 +48549,25 @@
         <v>1</v>
       </c>
       <c r="E889" t="s">
+        <v>4335</v>
+      </c>
+      <c r="F889" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G889" t="s">
         <v>4336</v>
       </c>
-      <c r="F889" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G889" t="s">
+      <c r="H889" t="s">
         <v>4337</v>
-      </c>
-      <c r="H889" t="s">
-        <v>4338</v>
       </c>
       <c r="I889" t="s">
         <v>87</v>
       </c>
       <c r="J889" t="s">
+        <v>4338</v>
+      </c>
+      <c r="K889" s="1" t="s">
         <v>4339</v>
-      </c>
-      <c r="K889" s="1" t="s">
-        <v>4340</v>
       </c>
       <c r="L889" t="s">
         <v>3595</v>
@@ -48587,22 +48587,22 @@
         <v>2</v>
       </c>
       <c r="E890" t="s">
+        <v>4340</v>
+      </c>
+      <c r="F890" t="s">
         <v>4341</v>
-      </c>
-      <c r="F890" t="s">
-        <v>4342</v>
       </c>
       <c r="G890" t="s">
         <v>2176</v>
       </c>
       <c r="H890" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="J890" t="s">
+        <v>4338</v>
+      </c>
+      <c r="K890" s="1" t="s">
         <v>4339</v>
-      </c>
-      <c r="K890" s="1" t="s">
-        <v>4340</v>
       </c>
       <c r="L890" t="s">
         <v>3595</v>
@@ -48622,7 +48622,7 @@
         <v>1</v>
       </c>
       <c r="E891" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="F891" t="s">
         <v>3823</v>
@@ -48631,16 +48631,16 @@
         <v>2176</v>
       </c>
       <c r="H891" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="I891" t="s">
         <v>87</v>
       </c>
       <c r="J891" t="s">
+        <v>4345</v>
+      </c>
+      <c r="K891" s="1" t="s">
         <v>4346</v>
-      </c>
-      <c r="K891" s="1" t="s">
-        <v>4347</v>
       </c>
       <c r="L891" t="s">
         <v>3595</v>
@@ -48660,25 +48660,25 @@
         <v>2</v>
       </c>
       <c r="E892" t="s">
+        <v>4347</v>
+      </c>
+      <c r="F892" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G892" t="s">
         <v>4348</v>
       </c>
-      <c r="F892" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G892" t="s">
+      <c r="H892" t="s">
         <v>4349</v>
-      </c>
-      <c r="H892" t="s">
-        <v>4350</v>
       </c>
       <c r="I892" t="s">
         <v>87</v>
       </c>
       <c r="J892" t="s">
+        <v>4345</v>
+      </c>
+      <c r="K892" s="1" t="s">
         <v>4346</v>
-      </c>
-      <c r="K892" s="1" t="s">
-        <v>4347</v>
       </c>
       <c r="L892" t="s">
         <v>3595</v>
@@ -48698,7 +48698,7 @@
         <v>1</v>
       </c>
       <c r="E893" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="F893" t="s">
         <v>3823</v>
@@ -48707,16 +48707,16 @@
         <v>2176</v>
       </c>
       <c r="H893" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="I893" t="s">
         <v>87</v>
       </c>
       <c r="J893" t="s">
+        <v>4352</v>
+      </c>
+      <c r="K893" s="1" t="s">
         <v>4353</v>
-      </c>
-      <c r="K893" s="1" t="s">
-        <v>4354</v>
       </c>
       <c r="L893" t="s">
         <v>3595</v>
@@ -48736,25 +48736,25 @@
         <v>2</v>
       </c>
       <c r="E894" t="s">
+        <v>4354</v>
+      </c>
+      <c r="F894" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G894" t="s">
         <v>4355</v>
       </c>
-      <c r="F894" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G894" t="s">
+      <c r="H894" t="s">
         <v>4356</v>
-      </c>
-      <c r="H894" t="s">
-        <v>4357</v>
       </c>
       <c r="I894" t="s">
         <v>87</v>
       </c>
       <c r="J894" t="s">
+        <v>4352</v>
+      </c>
+      <c r="K894" s="1" t="s">
         <v>4353</v>
-      </c>
-      <c r="K894" s="1" t="s">
-        <v>4354</v>
       </c>
       <c r="L894" t="s">
         <v>3595</v>
@@ -48774,25 +48774,25 @@
         <v>3</v>
       </c>
       <c r="E895" t="s">
+        <v>4357</v>
+      </c>
+      <c r="F895" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G895" t="s">
         <v>4358</v>
       </c>
-      <c r="F895" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G895" t="s">
+      <c r="H895" t="s">
         <v>4359</v>
-      </c>
-      <c r="H895" t="s">
-        <v>4360</v>
       </c>
       <c r="I895" t="s">
         <v>87</v>
       </c>
       <c r="J895" t="s">
+        <v>4352</v>
+      </c>
+      <c r="K895" s="1" t="s">
         <v>4353</v>
-      </c>
-      <c r="K895" s="1" t="s">
-        <v>4354</v>
       </c>
       <c r="L895" t="s">
         <v>3595</v>
@@ -48812,7 +48812,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="F896" t="s">
         <v>3823</v>
@@ -48821,16 +48821,16 @@
         <v>2176</v>
       </c>
       <c r="H896" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="I896" t="s">
         <v>87</v>
       </c>
       <c r="J896" t="s">
+        <v>4362</v>
+      </c>
+      <c r="K896" s="1" t="s">
         <v>4363</v>
-      </c>
-      <c r="K896" s="1" t="s">
-        <v>4364</v>
       </c>
       <c r="L896" t="s">
         <v>3595</v>
@@ -48850,7 +48850,7 @@
         <v>2</v>
       </c>
       <c r="E897" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F897" t="s">
         <v>3823</v>
@@ -48859,16 +48859,16 @@
         <v>2176</v>
       </c>
       <c r="H897" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="I897" t="s">
         <v>87</v>
       </c>
       <c r="J897" t="s">
+        <v>4362</v>
+      </c>
+      <c r="K897" s="1" t="s">
         <v>4363</v>
-      </c>
-      <c r="K897" s="1" t="s">
-        <v>4364</v>
       </c>
       <c r="L897" t="s">
         <v>3595</v>
@@ -48888,25 +48888,25 @@
         <v>3</v>
       </c>
       <c r="E898" t="s">
+        <v>4366</v>
+      </c>
+      <c r="F898" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G898" t="s">
         <v>4367</v>
       </c>
-      <c r="F898" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G898" t="s">
+      <c r="H898" t="s">
         <v>4368</v>
-      </c>
-      <c r="H898" t="s">
-        <v>4369</v>
       </c>
       <c r="I898" t="s">
         <v>87</v>
       </c>
       <c r="J898" t="s">
+        <v>4362</v>
+      </c>
+      <c r="K898" s="1" t="s">
         <v>4363</v>
-      </c>
-      <c r="K898" s="1" t="s">
-        <v>4364</v>
       </c>
       <c r="L898" t="s">
         <v>3595</v>
@@ -48926,7 +48926,7 @@
         <v>1</v>
       </c>
       <c r="E899" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="F899" t="s">
         <v>3823</v>
@@ -48935,16 +48935,16 @@
         <v>2176</v>
       </c>
       <c r="H899" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="I899" t="s">
         <v>87</v>
       </c>
       <c r="J899" t="s">
+        <v>4371</v>
+      </c>
+      <c r="K899" s="1" t="s">
         <v>4372</v>
-      </c>
-      <c r="K899" s="1" t="s">
-        <v>4373</v>
       </c>
       <c r="L899" t="s">
         <v>3595</v>
@@ -48964,25 +48964,25 @@
         <v>2</v>
       </c>
       <c r="E900" t="s">
+        <v>4373</v>
+      </c>
+      <c r="F900" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G900" t="s">
         <v>4374</v>
       </c>
-      <c r="F900" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G900" t="s">
+      <c r="H900" t="s">
         <v>4375</v>
-      </c>
-      <c r="H900" t="s">
-        <v>4376</v>
       </c>
       <c r="I900" t="s">
         <v>87</v>
       </c>
       <c r="J900" t="s">
+        <v>4371</v>
+      </c>
+      <c r="K900" s="1" t="s">
         <v>4372</v>
-      </c>
-      <c r="K900" s="1" t="s">
-        <v>4373</v>
       </c>
       <c r="L900" t="s">
         <v>3595</v>
@@ -49002,7 +49002,7 @@
         <v>1</v>
       </c>
       <c r="E901" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="F901" t="s">
         <v>3823</v>
@@ -49011,16 +49011,16 @@
         <v>2176</v>
       </c>
       <c r="H901" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="I901" t="s">
         <v>87</v>
       </c>
       <c r="J901" t="s">
+        <v>4378</v>
+      </c>
+      <c r="K901" s="1" t="s">
         <v>4379</v>
-      </c>
-      <c r="K901" s="1" t="s">
-        <v>4380</v>
       </c>
       <c r="L901" t="s">
         <v>3595</v>
@@ -49040,25 +49040,25 @@
         <v>2</v>
       </c>
       <c r="E902" t="s">
+        <v>4380</v>
+      </c>
+      <c r="F902" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G902" t="s">
         <v>4381</v>
       </c>
-      <c r="F902" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G902" t="s">
+      <c r="H902" t="s">
         <v>4382</v>
-      </c>
-      <c r="H902" t="s">
-        <v>4383</v>
       </c>
       <c r="I902" t="s">
         <v>87</v>
       </c>
       <c r="J902" t="s">
+        <v>4378</v>
+      </c>
+      <c r="K902" s="1" t="s">
         <v>4379</v>
-      </c>
-      <c r="K902" s="1" t="s">
-        <v>4380</v>
       </c>
       <c r="L902" t="s">
         <v>3595</v>
@@ -49078,7 +49078,7 @@
         <v>1</v>
       </c>
       <c r="E903" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="F903" t="s">
         <v>3823</v>
@@ -49087,16 +49087,16 @@
         <v>2176</v>
       </c>
       <c r="H903" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="I903" t="s">
         <v>87</v>
       </c>
       <c r="J903" t="s">
+        <v>4385</v>
+      </c>
+      <c r="K903" s="1" t="s">
         <v>4386</v>
-      </c>
-      <c r="K903" s="1" t="s">
-        <v>4387</v>
       </c>
       <c r="L903" t="s">
         <v>3595</v>
@@ -49116,25 +49116,25 @@
         <v>2</v>
       </c>
       <c r="E904" t="s">
+        <v>4387</v>
+      </c>
+      <c r="F904" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G904" t="s">
         <v>4388</v>
       </c>
-      <c r="F904" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G904" t="s">
+      <c r="H904" t="s">
         <v>4389</v>
-      </c>
-      <c r="H904" t="s">
-        <v>4390</v>
       </c>
       <c r="I904" t="s">
         <v>87</v>
       </c>
       <c r="J904" t="s">
+        <v>4385</v>
+      </c>
+      <c r="K904" s="1" t="s">
         <v>4386</v>
-      </c>
-      <c r="K904" s="1" t="s">
-        <v>4387</v>
       </c>
       <c r="L904" t="s">
         <v>3595</v>
@@ -49154,25 +49154,25 @@
         <v>3</v>
       </c>
       <c r="E905" t="s">
-        <v>4391</v>
+        <v>4390</v>
       </c>
       <c r="F905" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="G905" t="s">
         <v>163</v>
       </c>
       <c r="H905" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="I905" t="s">
         <v>87</v>
       </c>
       <c r="J905" t="s">
+        <v>4385</v>
+      </c>
+      <c r="K905" s="1" t="s">
         <v>4386</v>
-      </c>
-      <c r="K905" s="1" t="s">
-        <v>4387</v>
       </c>
       <c r="L905" t="s">
         <v>3595</v>
@@ -49192,25 +49192,25 @@
         <v>1</v>
       </c>
       <c r="E906" t="s">
+        <v>4392</v>
+      </c>
+      <c r="F906" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G906" t="s">
         <v>4393</v>
       </c>
-      <c r="F906" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G906" t="s">
+      <c r="H906" t="s">
         <v>4394</v>
-      </c>
-      <c r="H906" t="s">
-        <v>4395</v>
       </c>
       <c r="I906" t="s">
         <v>87</v>
       </c>
       <c r="J906" t="s">
+        <v>4395</v>
+      </c>
+      <c r="K906" s="1" t="s">
         <v>4396</v>
-      </c>
-      <c r="K906" s="1" t="s">
-        <v>4397</v>
       </c>
       <c r="L906" t="s">
         <v>3595</v>
@@ -49230,7 +49230,7 @@
         <v>2</v>
       </c>
       <c r="E907" t="s">
-        <v>4398</v>
+        <v>4397</v>
       </c>
       <c r="F907" t="s">
         <v>3823</v>
@@ -49239,16 +49239,16 @@
         <v>2176</v>
       </c>
       <c r="H907" t="s">
-        <v>4399</v>
+        <v>4398</v>
       </c>
       <c r="I907" t="s">
         <v>87</v>
       </c>
       <c r="J907" t="s">
+        <v>4395</v>
+      </c>
+      <c r="K907" s="1" t="s">
         <v>4396</v>
-      </c>
-      <c r="K907" s="1" t="s">
-        <v>4397</v>
       </c>
       <c r="L907" t="s">
         <v>3595</v>
@@ -49268,25 +49268,25 @@
         <v>3</v>
       </c>
       <c r="E908" t="s">
+        <v>4399</v>
+      </c>
+      <c r="F908" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G908" t="s">
         <v>4400</v>
       </c>
-      <c r="F908" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G908" t="s">
+      <c r="H908" t="s">
         <v>4401</v>
-      </c>
-      <c r="H908" t="s">
-        <v>4402</v>
       </c>
       <c r="I908" t="s">
         <v>87</v>
       </c>
       <c r="J908" t="s">
+        <v>4395</v>
+      </c>
+      <c r="K908" s="1" t="s">
         <v>4396</v>
-      </c>
-      <c r="K908" s="1" t="s">
-        <v>4397</v>
       </c>
       <c r="L908" t="s">
         <v>3595</v>
@@ -49306,7 +49306,7 @@
         <v>1</v>
       </c>
       <c r="E909" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="F909" t="s">
         <v>3823</v>
@@ -49315,16 +49315,16 @@
         <v>2176</v>
       </c>
       <c r="H909" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="I909" t="s">
         <v>87</v>
       </c>
       <c r="J909" t="s">
+        <v>4404</v>
+      </c>
+      <c r="K909" s="1" t="s">
         <v>4405</v>
-      </c>
-      <c r="K909" s="1" t="s">
-        <v>4406</v>
       </c>
       <c r="L909" t="s">
         <v>3595</v>
@@ -49344,25 +49344,25 @@
         <v>2</v>
       </c>
       <c r="E910" t="s">
+        <v>4406</v>
+      </c>
+      <c r="F910" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G910" t="s">
         <v>4407</v>
       </c>
-      <c r="F910" t="s">
-        <v>4287</v>
-      </c>
-      <c r="G910" t="s">
+      <c r="H910" t="s">
         <v>4408</v>
-      </c>
-      <c r="H910" t="s">
-        <v>4409</v>
       </c>
       <c r="I910" t="s">
         <v>87</v>
       </c>
       <c r="J910" t="s">
+        <v>4404</v>
+      </c>
+      <c r="K910" s="1" t="s">
         <v>4405</v>
-      </c>
-      <c r="K910" s="1" t="s">
-        <v>4406</v>
       </c>
       <c r="L910" t="s">
         <v>3595</v>
@@ -49382,22 +49382,22 @@
         <v>3</v>
       </c>
       <c r="E911" t="s">
+        <v>4409</v>
+      </c>
+      <c r="F911" t="s">
         <v>4410</v>
       </c>
-      <c r="F911" t="s">
+      <c r="G911" t="s">
         <v>4411</v>
       </c>
-      <c r="G911" t="s">
+      <c r="H911" t="s">
         <v>4412</v>
       </c>
-      <c r="H911" t="s">
-        <v>4413</v>
-      </c>
       <c r="J911" t="s">
+        <v>4404</v>
+      </c>
+      <c r="K911" s="1" t="s">
         <v>4405</v>
-      </c>
-      <c r="K911" s="1" t="s">
-        <v>4406</v>
       </c>
       <c r="L911" t="s">
         <v>3595</v>
@@ -49417,22 +49417,22 @@
         <v>1</v>
       </c>
       <c r="E912" t="s">
+        <v>4413</v>
+      </c>
+      <c r="F912" t="s">
         <v>4414</v>
       </c>
-      <c r="F912" t="s">
+      <c r="G912" t="s">
         <v>4415</v>
       </c>
-      <c r="G912" t="s">
+      <c r="H912" t="s">
         <v>4416</v>
       </c>
-      <c r="H912" t="s">
+      <c r="J912" t="s">
         <v>4417</v>
       </c>
-      <c r="J912" t="s">
+      <c r="K912" s="1" t="s">
         <v>4418</v>
-      </c>
-      <c r="K912" s="1" t="s">
-        <v>4419</v>
       </c>
       <c r="L912" t="s">
         <v>994</v>
@@ -49452,22 +49452,22 @@
         <v>2</v>
       </c>
       <c r="E913" t="s">
+        <v>4419</v>
+      </c>
+      <c r="F913" t="s">
         <v>4420</v>
       </c>
-      <c r="F913" t="s">
+      <c r="G913" t="s">
         <v>4421</v>
       </c>
-      <c r="G913" t="s">
+      <c r="H913" t="s">
         <v>4422</v>
       </c>
-      <c r="H913" t="s">
+      <c r="J913" t="s">
         <v>4423</v>
       </c>
-      <c r="J913" t="s">
+      <c r="K913" s="1" t="s">
         <v>4424</v>
-      </c>
-      <c r="K913" s="1" t="s">
-        <v>4425</v>
       </c>
       <c r="L913" t="s">
         <v>994</v>
@@ -49487,22 +49487,22 @@
         <v>1</v>
       </c>
       <c r="E914" t="s">
+        <v>4425</v>
+      </c>
+      <c r="F914" t="s">
         <v>4426</v>
       </c>
-      <c r="F914" t="s">
+      <c r="G914" t="s">
         <v>4427</v>
       </c>
-      <c r="G914" t="s">
+      <c r="H914" t="s">
         <v>4428</v>
       </c>
-      <c r="H914" t="s">
+      <c r="J914" t="s">
         <v>4429</v>
       </c>
-      <c r="J914" t="s">
+      <c r="K914" s="1" t="s">
         <v>4430</v>
-      </c>
-      <c r="K914" s="1" t="s">
-        <v>4431</v>
       </c>
       <c r="L914" t="s">
         <v>994</v>
@@ -49522,22 +49522,22 @@
         <v>2</v>
       </c>
       <c r="E915" t="s">
+        <v>4431</v>
+      </c>
+      <c r="F915" t="s">
         <v>4432</v>
       </c>
-      <c r="F915" t="s">
+      <c r="G915" t="s">
         <v>4433</v>
       </c>
-      <c r="G915" t="s">
+      <c r="H915" t="s">
         <v>4434</v>
       </c>
-      <c r="H915" t="s">
-        <v>4435</v>
-      </c>
       <c r="J915" t="s">
+        <v>4429</v>
+      </c>
+      <c r="K915" s="1" t="s">
         <v>4430</v>
-      </c>
-      <c r="K915" s="1" t="s">
-        <v>4431</v>
       </c>
       <c r="L915" t="s">
         <v>994</v>
@@ -49557,22 +49557,22 @@
         <v>1</v>
       </c>
       <c r="E916" t="s">
+        <v>4435</v>
+      </c>
+      <c r="F916" t="s">
         <v>4436</v>
       </c>
-      <c r="F916" t="s">
+      <c r="G916" t="s">
         <v>4437</v>
       </c>
-      <c r="G916" t="s">
+      <c r="H916" t="s">
         <v>4438</v>
       </c>
-      <c r="H916" t="s">
+      <c r="J916" t="s">
         <v>4439</v>
       </c>
-      <c r="J916" t="s">
+      <c r="K916" t="s">
         <v>4440</v>
-      </c>
-      <c r="K916" t="s">
-        <v>4441</v>
       </c>
       <c r="L916" t="s">
         <v>994</v>
@@ -49592,22 +49592,22 @@
         <v>1</v>
       </c>
       <c r="E917" t="s">
+        <v>4441</v>
+      </c>
+      <c r="F917" t="s">
         <v>4442</v>
       </c>
-      <c r="F917" t="s">
+      <c r="G917" t="s">
         <v>4443</v>
       </c>
-      <c r="G917" t="s">
+      <c r="H917" t="s">
         <v>4444</v>
       </c>
-      <c r="H917" t="s">
+      <c r="J917" t="s">
         <v>4445</v>
       </c>
-      <c r="J917" t="s">
+      <c r="K917" t="s">
         <v>4446</v>
-      </c>
-      <c r="K917" t="s">
-        <v>4447</v>
       </c>
       <c r="L917" t="s">
         <v>994</v>
@@ -49627,22 +49627,22 @@
         <v>2</v>
       </c>
       <c r="E918" t="s">
+        <v>4447</v>
+      </c>
+      <c r="F918" t="s">
         <v>4448</v>
       </c>
-      <c r="F918" t="s">
+      <c r="G918" t="s">
         <v>4449</v>
       </c>
-      <c r="G918" t="s">
+      <c r="H918" t="s">
         <v>4450</v>
       </c>
-      <c r="H918" t="s">
+      <c r="J918" t="s">
         <v>4451</v>
       </c>
-      <c r="J918" t="s">
+      <c r="K918" s="1" t="s">
         <v>4452</v>
-      </c>
-      <c r="K918" s="1" t="s">
-        <v>4453</v>
       </c>
       <c r="L918" t="s">
         <v>994</v>
@@ -49662,22 +49662,22 @@
         <v>3</v>
       </c>
       <c r="E919" t="s">
+        <v>4453</v>
+      </c>
+      <c r="F919" t="s">
         <v>4454</v>
       </c>
-      <c r="F919" t="s">
+      <c r="G919" t="s">
         <v>4455</v>
       </c>
-      <c r="G919" t="s">
+      <c r="H919" t="s">
         <v>4456</v>
       </c>
-      <c r="H919" t="s">
-        <v>4457</v>
-      </c>
       <c r="J919" t="s">
+        <v>4451</v>
+      </c>
+      <c r="K919" s="1" t="s">
         <v>4452</v>
-      </c>
-      <c r="K919" s="1" t="s">
-        <v>4453</v>
       </c>
       <c r="L919" t="s">
         <v>994</v>
@@ -49697,22 +49697,22 @@
         <v>1</v>
       </c>
       <c r="E920" t="s">
+        <v>4457</v>
+      </c>
+      <c r="F920" t="s">
         <v>4458</v>
       </c>
-      <c r="F920" t="s">
+      <c r="G920" t="s">
         <v>4459</v>
       </c>
-      <c r="G920" t="s">
+      <c r="H920" t="s">
         <v>4460</v>
       </c>
-      <c r="H920" t="s">
+      <c r="J920" t="s">
         <v>4461</v>
       </c>
-      <c r="J920" t="s">
+      <c r="K920" t="s">
         <v>4462</v>
-      </c>
-      <c r="K920" t="s">
-        <v>4463</v>
       </c>
       <c r="L920" t="s">
         <v>994</v>
@@ -49732,22 +49732,22 @@
         <v>2</v>
       </c>
       <c r="E921" t="s">
+        <v>4463</v>
+      </c>
+      <c r="F921" t="s">
         <v>4464</v>
       </c>
-      <c r="F921" t="s">
+      <c r="G921" t="s">
         <v>4465</v>
       </c>
-      <c r="G921" t="s">
+      <c r="H921" t="s">
         <v>4466</v>
       </c>
-      <c r="H921" t="s">
+      <c r="J921" t="s">
         <v>4467</v>
       </c>
-      <c r="J921" t="s">
+      <c r="K921" s="1" t="s">
         <v>4468</v>
-      </c>
-      <c r="K921" s="1" t="s">
-        <v>4469</v>
       </c>
       <c r="L921" t="s">
         <v>994</v>
@@ -49767,22 +49767,22 @@
         <v>3</v>
       </c>
       <c r="E922" t="s">
+        <v>4469</v>
+      </c>
+      <c r="F922" t="s">
         <v>4470</v>
       </c>
-      <c r="F922" t="s">
+      <c r="G922" t="s">
         <v>4471</v>
       </c>
-      <c r="G922" t="s">
+      <c r="H922" t="s">
         <v>4472</v>
       </c>
-      <c r="H922" t="s">
-        <v>4473</v>
-      </c>
       <c r="J922" t="s">
+        <v>4467</v>
+      </c>
+      <c r="K922" s="1" t="s">
         <v>4468</v>
-      </c>
-      <c r="K922" s="1" t="s">
-        <v>4469</v>
       </c>
       <c r="L922" t="s">
         <v>994</v>
@@ -49802,22 +49802,22 @@
         <v>1</v>
       </c>
       <c r="E923" t="s">
+        <v>4473</v>
+      </c>
+      <c r="F923" t="s">
         <v>4474</v>
       </c>
-      <c r="F923" t="s">
+      <c r="G923" t="s">
         <v>4475</v>
       </c>
-      <c r="G923" t="s">
+      <c r="H923" t="s">
         <v>4476</v>
       </c>
-      <c r="H923" t="s">
+      <c r="J923" t="s">
         <v>4477</v>
       </c>
-      <c r="J923" t="s">
+      <c r="K923" s="1" t="s">
         <v>4478</v>
-      </c>
-      <c r="K923" s="1" t="s">
-        <v>4479</v>
       </c>
       <c r="L923" t="s">
         <v>994</v>
@@ -49837,22 +49837,22 @@
         <v>2</v>
       </c>
       <c r="E924" t="s">
+        <v>4479</v>
+      </c>
+      <c r="F924" t="s">
         <v>4480</v>
       </c>
-      <c r="F924" t="s">
+      <c r="G924" t="s">
         <v>4481</v>
       </c>
-      <c r="G924" t="s">
+      <c r="H924" t="s">
         <v>4482</v>
       </c>
-      <c r="H924" t="s">
-        <v>4483</v>
-      </c>
       <c r="J924" t="s">
+        <v>4477</v>
+      </c>
+      <c r="K924" s="1" t="s">
         <v>4478</v>
-      </c>
-      <c r="K924" s="1" t="s">
-        <v>4479</v>
       </c>
       <c r="L924" t="s">
         <v>994</v>
@@ -49872,22 +49872,22 @@
         <v>3</v>
       </c>
       <c r="E925" t="s">
+        <v>4483</v>
+      </c>
+      <c r="F925" t="s">
         <v>4484</v>
       </c>
-      <c r="F925" t="s">
+      <c r="G925" t="s">
         <v>4485</v>
       </c>
-      <c r="G925" t="s">
+      <c r="H925" t="s">
         <v>4486</v>
       </c>
-      <c r="H925" t="s">
+      <c r="J925" t="s">
         <v>4487</v>
       </c>
-      <c r="J925" t="s">
+      <c r="K925" s="1" t="s">
         <v>4488</v>
-      </c>
-      <c r="K925" s="1" t="s">
-        <v>4489</v>
       </c>
       <c r="L925" t="s">
         <v>994</v>
@@ -49907,22 +49907,22 @@
         <v>1</v>
       </c>
       <c r="E926" t="s">
+        <v>4489</v>
+      </c>
+      <c r="F926" t="s">
         <v>4490</v>
       </c>
-      <c r="F926" t="s">
+      <c r="G926" t="s">
         <v>4491</v>
       </c>
-      <c r="G926" t="s">
+      <c r="H926" t="s">
         <v>4492</v>
       </c>
-      <c r="H926" t="s">
+      <c r="J926" t="s">
         <v>4493</v>
       </c>
-      <c r="J926" t="s">
+      <c r="K926" s="1" t="s">
         <v>4494</v>
-      </c>
-      <c r="K926" s="1" t="s">
-        <v>4495</v>
       </c>
       <c r="L926" t="s">
         <v>994</v>
@@ -49942,22 +49942,22 @@
         <v>1</v>
       </c>
       <c r="E927" t="s">
+        <v>4495</v>
+      </c>
+      <c r="F927" t="s">
         <v>4496</v>
       </c>
-      <c r="F927" t="s">
+      <c r="G927" t="s">
         <v>4497</v>
       </c>
-      <c r="G927" t="s">
+      <c r="H927" t="s">
         <v>4498</v>
       </c>
-      <c r="H927" t="s">
+      <c r="J927" t="s">
         <v>4499</v>
       </c>
-      <c r="J927" t="s">
+      <c r="K927" s="1" t="s">
         <v>4500</v>
-      </c>
-      <c r="K927" s="1" t="s">
-        <v>4501</v>
       </c>
       <c r="L927" t="s">
         <v>994</v>
@@ -49977,22 +49977,22 @@
         <v>1</v>
       </c>
       <c r="E928" t="s">
+        <v>4501</v>
+      </c>
+      <c r="F928" t="s">
         <v>4502</v>
       </c>
-      <c r="F928" t="s">
+      <c r="G928" t="s">
         <v>4503</v>
       </c>
-      <c r="G928" t="s">
+      <c r="H928" t="s">
         <v>4504</v>
       </c>
-      <c r="H928" t="s">
+      <c r="J928" t="s">
         <v>4505</v>
       </c>
-      <c r="J928" t="s">
+      <c r="K928" s="1" t="s">
         <v>4506</v>
-      </c>
-      <c r="K928" s="1" t="s">
-        <v>4507</v>
       </c>
       <c r="L928" t="s">
         <v>994</v>
@@ -50012,22 +50012,22 @@
         <v>1</v>
       </c>
       <c r="E929" t="s">
+        <v>4507</v>
+      </c>
+      <c r="F929" t="s">
         <v>4508</v>
       </c>
-      <c r="F929" t="s">
+      <c r="G929" t="s">
         <v>4509</v>
       </c>
-      <c r="G929" t="s">
+      <c r="H929" t="s">
         <v>4510</v>
       </c>
-      <c r="H929" t="s">
+      <c r="J929" t="s">
         <v>4511</v>
       </c>
-      <c r="J929" t="s">
+      <c r="K929" t="s">
         <v>4512</v>
-      </c>
-      <c r="K929" t="s">
-        <v>4513</v>
       </c>
       <c r="L929" t="s">
         <v>994</v>
@@ -50047,22 +50047,22 @@
         <v>1</v>
       </c>
       <c r="E930" t="s">
+        <v>4513</v>
+      </c>
+      <c r="F930" t="s">
         <v>4514</v>
       </c>
-      <c r="F930" t="s">
+      <c r="G930" t="s">
         <v>4515</v>
       </c>
-      <c r="G930" t="s">
+      <c r="H930" t="s">
         <v>4516</v>
       </c>
-      <c r="H930" t="s">
+      <c r="J930" t="s">
         <v>4517</v>
       </c>
-      <c r="J930" t="s">
+      <c r="K930" s="1" t="s">
         <v>4518</v>
-      </c>
-      <c r="K930" s="1" t="s">
-        <v>4519</v>
       </c>
       <c r="L930" t="s">
         <v>994</v>
@@ -50082,22 +50082,22 @@
         <v>2</v>
       </c>
       <c r="E931" t="s">
+        <v>4519</v>
+      </c>
+      <c r="F931" t="s">
         <v>4520</v>
       </c>
-      <c r="F931" t="s">
+      <c r="G931" t="s">
         <v>4521</v>
       </c>
-      <c r="G931" t="s">
+      <c r="H931" t="s">
         <v>4522</v>
       </c>
-      <c r="H931" t="s">
+      <c r="J931" t="s">
         <v>4523</v>
       </c>
-      <c r="J931" t="s">
+      <c r="K931" s="1" t="s">
         <v>4524</v>
-      </c>
-      <c r="K931" s="1" t="s">
-        <v>4525</v>
       </c>
       <c r="L931" t="s">
         <v>994</v>
@@ -50117,22 +50117,22 @@
         <v>1</v>
       </c>
       <c r="E932" t="s">
+        <v>4525</v>
+      </c>
+      <c r="F932" t="s">
         <v>4526</v>
       </c>
-      <c r="F932" t="s">
+      <c r="G932" t="s">
         <v>4527</v>
       </c>
-      <c r="G932" t="s">
+      <c r="H932" t="s">
         <v>4528</v>
       </c>
-      <c r="H932" t="s">
+      <c r="J932" t="s">
         <v>4529</v>
       </c>
-      <c r="J932" t="s">
+      <c r="K932" s="1" t="s">
         <v>4530</v>
-      </c>
-      <c r="K932" s="1" t="s">
-        <v>4531</v>
       </c>
       <c r="L932" t="s">
         <v>994</v>
@@ -50152,22 +50152,22 @@
         <v>2</v>
       </c>
       <c r="E933" t="s">
+        <v>4531</v>
+      </c>
+      <c r="F933" t="s">
         <v>4532</v>
       </c>
-      <c r="F933" t="s">
+      <c r="G933" t="s">
         <v>4533</v>
       </c>
-      <c r="G933" t="s">
+      <c r="H933" t="s">
         <v>4534</v>
       </c>
-      <c r="H933" t="s">
-        <v>4535</v>
-      </c>
       <c r="J933" t="s">
+        <v>4529</v>
+      </c>
+      <c r="K933" s="1" t="s">
         <v>4530</v>
-      </c>
-      <c r="K933" s="1" t="s">
-        <v>4531</v>
       </c>
       <c r="L933" t="s">
         <v>994</v>
@@ -50187,22 +50187,22 @@
         <v>3</v>
       </c>
       <c r="E934" t="s">
+        <v>4535</v>
+      </c>
+      <c r="F934" t="s">
         <v>4536</v>
       </c>
-      <c r="F934" t="s">
+      <c r="G934" t="s">
         <v>4537</v>
       </c>
-      <c r="G934" t="s">
+      <c r="H934" t="s">
         <v>4538</v>
       </c>
-      <c r="H934" t="s">
+      <c r="J934" t="s">
         <v>4539</v>
       </c>
-      <c r="J934" t="s">
+      <c r="K934" s="1" t="s">
         <v>4540</v>
-      </c>
-      <c r="K934" s="1" t="s">
-        <v>4541</v>
       </c>
       <c r="L934" t="s">
         <v>994</v>
@@ -50222,22 +50222,22 @@
         <v>1</v>
       </c>
       <c r="E935" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F935" t="s">
         <v>4542</v>
       </c>
-      <c r="F935" t="s">
+      <c r="G935" t="s">
         <v>4543</v>
       </c>
-      <c r="G935" t="s">
+      <c r="H935" t="s">
         <v>4544</v>
       </c>
-      <c r="H935" t="s">
+      <c r="J935" t="s">
         <v>4545</v>
       </c>
-      <c r="J935" t="s">
+      <c r="K935" s="1" t="s">
         <v>4546</v>
-      </c>
-      <c r="K935" s="1" t="s">
-        <v>4547</v>
       </c>
       <c r="L935" t="s">
         <v>994</v>
@@ -50257,22 +50257,22 @@
         <v>2</v>
       </c>
       <c r="E936" t="s">
+        <v>4547</v>
+      </c>
+      <c r="F936" t="s">
         <v>4548</v>
       </c>
-      <c r="F936" t="s">
+      <c r="G936" t="s">
         <v>4549</v>
       </c>
-      <c r="G936" t="s">
+      <c r="H936" t="s">
         <v>4550</v>
       </c>
-      <c r="H936" t="s">
-        <v>4551</v>
-      </c>
       <c r="J936" t="s">
+        <v>4545</v>
+      </c>
+      <c r="K936" s="1" t="s">
         <v>4546</v>
-      </c>
-      <c r="K936" s="1" t="s">
-        <v>4547</v>
       </c>
       <c r="L936" t="s">
         <v>994</v>
@@ -50292,22 +50292,22 @@
         <v>1</v>
       </c>
       <c r="E937" t="s">
+        <v>4551</v>
+      </c>
+      <c r="F937" t="s">
         <v>4552</v>
       </c>
-      <c r="F937" t="s">
+      <c r="G937" t="s">
         <v>4553</v>
       </c>
-      <c r="G937" t="s">
+      <c r="H937" t="s">
         <v>4554</v>
       </c>
-      <c r="H937" t="s">
+      <c r="J937" t="s">
         <v>4555</v>
       </c>
-      <c r="J937" t="s">
+      <c r="K937" s="1" t="s">
         <v>4556</v>
-      </c>
-      <c r="K937" s="1" t="s">
-        <v>4557</v>
       </c>
       <c r="L937" t="s">
         <v>1445</v>
@@ -50327,22 +50327,22 @@
         <v>1</v>
       </c>
       <c r="E938" t="s">
+        <v>4557</v>
+      </c>
+      <c r="F938" t="s">
         <v>4558</v>
       </c>
-      <c r="F938" t="s">
+      <c r="G938" t="s">
         <v>4559</v>
       </c>
-      <c r="G938" t="s">
+      <c r="H938" t="s">
         <v>4560</v>
       </c>
-      <c r="H938" t="s">
+      <c r="J938" t="s">
+        <v>4555</v>
+      </c>
+      <c r="K938" s="1" t="s">
         <v>4561</v>
-      </c>
-      <c r="J938" t="s">
-        <v>4556</v>
-      </c>
-      <c r="K938" s="1" t="s">
-        <v>4562</v>
       </c>
       <c r="L938" t="s">
         <v>1445</v>
@@ -50362,22 +50362,22 @@
         <v>1</v>
       </c>
       <c r="E939" t="s">
+        <v>4562</v>
+      </c>
+      <c r="F939" t="s">
         <v>4563</v>
       </c>
-      <c r="F939" t="s">
+      <c r="G939" t="s">
         <v>4564</v>
       </c>
-      <c r="G939" t="s">
+      <c r="H939" t="s">
         <v>4565</v>
       </c>
-      <c r="H939" t="s">
+      <c r="J939" t="s">
         <v>4566</v>
       </c>
-      <c r="J939" t="s">
+      <c r="K939" s="1" t="s">
         <v>4567</v>
-      </c>
-      <c r="K939" s="1" t="s">
-        <v>4568</v>
       </c>
       <c r="L939" t="s">
         <v>1445</v>
@@ -50397,22 +50397,22 @@
         <v>1</v>
       </c>
       <c r="E940" t="s">
+        <v>4568</v>
+      </c>
+      <c r="F940" t="s">
         <v>4569</v>
       </c>
-      <c r="F940" t="s">
+      <c r="G940" t="s">
         <v>4570</v>
       </c>
-      <c r="G940" t="s">
+      <c r="H940" t="s">
         <v>4571</v>
       </c>
-      <c r="H940" t="s">
-        <v>4572</v>
-      </c>
       <c r="J940" t="s">
+        <v>4566</v>
+      </c>
+      <c r="K940" s="1" t="s">
         <v>4567</v>
-      </c>
-      <c r="K940" s="1" t="s">
-        <v>4568</v>
       </c>
       <c r="L940" t="s">
         <v>1445</v>
@@ -50432,22 +50432,22 @@
         <v>1</v>
       </c>
       <c r="E941" t="s">
+        <v>4572</v>
+      </c>
+      <c r="F941" t="s">
         <v>4573</v>
       </c>
-      <c r="F941" t="s">
+      <c r="G941" t="s">
         <v>4574</v>
       </c>
-      <c r="G941" t="s">
+      <c r="H941" t="s">
         <v>4575</v>
       </c>
-      <c r="H941" t="s">
+      <c r="J941" t="s">
         <v>4576</v>
       </c>
-      <c r="J941" t="s">
+      <c r="K941" s="1" t="s">
         <v>4577</v>
-      </c>
-      <c r="K941" s="1" t="s">
-        <v>4578</v>
       </c>
       <c r="L941" t="s">
         <v>1445</v>
@@ -50467,22 +50467,22 @@
         <v>1</v>
       </c>
       <c r="E942" t="s">
+        <v>4578</v>
+      </c>
+      <c r="F942" t="s">
         <v>4579</v>
       </c>
-      <c r="F942" t="s">
+      <c r="G942" t="s">
         <v>4580</v>
       </c>
-      <c r="G942" t="s">
+      <c r="H942" t="s">
         <v>4581</v>
       </c>
-      <c r="H942" t="s">
+      <c r="J942" t="s">
         <v>4582</v>
       </c>
-      <c r="J942" t="s">
+      <c r="K942" s="1" t="s">
         <v>4583</v>
-      </c>
-      <c r="K942" s="1" t="s">
-        <v>4584</v>
       </c>
       <c r="L942" t="s">
         <v>1445</v>
@@ -50502,22 +50502,22 @@
         <v>2</v>
       </c>
       <c r="E943" t="s">
+        <v>4584</v>
+      </c>
+      <c r="F943" t="s">
         <v>4585</v>
       </c>
-      <c r="F943" t="s">
+      <c r="G943" t="s">
         <v>4586</v>
       </c>
-      <c r="G943" t="s">
+      <c r="H943" t="s">
         <v>4587</v>
       </c>
-      <c r="H943" t="s">
+      <c r="J943" t="s">
         <v>4588</v>
       </c>
-      <c r="J943" t="s">
+      <c r="K943" s="1" t="s">
         <v>4589</v>
-      </c>
-      <c r="K943" s="1" t="s">
-        <v>4590</v>
       </c>
       <c r="L943" t="s">
         <v>994</v>
@@ -50537,22 +50537,22 @@
         <v>1</v>
       </c>
       <c r="E944" t="s">
+        <v>4590</v>
+      </c>
+      <c r="F944" t="s">
         <v>4591</v>
       </c>
-      <c r="F944" t="s">
+      <c r="G944" t="s">
         <v>4592</v>
       </c>
-      <c r="G944" t="s">
+      <c r="H944" t="s">
         <v>4593</v>
       </c>
-      <c r="H944" t="s">
+      <c r="J944" t="s">
         <v>4594</v>
       </c>
-      <c r="J944" t="s">
+      <c r="K944" s="1" t="s">
         <v>4595</v>
-      </c>
-      <c r="K944" s="1" t="s">
-        <v>4596</v>
       </c>
       <c r="L944" t="s">
         <v>994</v>
@@ -50572,22 +50572,22 @@
         <v>2</v>
       </c>
       <c r="E945" t="s">
+        <v>4596</v>
+      </c>
+      <c r="F945" t="s">
         <v>4597</v>
       </c>
-      <c r="F945" t="s">
+      <c r="G945" t="s">
         <v>4598</v>
       </c>
-      <c r="G945" t="s">
+      <c r="H945" t="s">
         <v>4599</v>
       </c>
-      <c r="H945" t="s">
-        <v>4600</v>
-      </c>
       <c r="J945" t="s">
+        <v>4594</v>
+      </c>
+      <c r="K945" s="1" t="s">
         <v>4595</v>
-      </c>
-      <c r="K945" s="1" t="s">
-        <v>4596</v>
       </c>
       <c r="L945" t="s">
         <v>994</v>
@@ -50604,22 +50604,22 @@
         <v>1</v>
       </c>
       <c r="E946" t="s">
+        <v>4600</v>
+      </c>
+      <c r="F946" t="s">
         <v>4601</v>
       </c>
-      <c r="F946" t="s">
+      <c r="G946" t="s">
         <v>4602</v>
       </c>
-      <c r="G946" t="s">
+      <c r="H946" t="s">
         <v>4603</v>
       </c>
-      <c r="H946" t="s">
+      <c r="J946" t="s">
         <v>4604</v>
       </c>
-      <c r="J946" t="s">
+      <c r="K946" s="1" t="s">
         <v>4605</v>
-      </c>
-      <c r="K946" s="1" t="s">
-        <v>4606</v>
       </c>
       <c r="L946" t="s">
         <v>994</v>
@@ -50639,22 +50639,22 @@
         <v>2</v>
       </c>
       <c r="E947" t="s">
+        <v>4606</v>
+      </c>
+      <c r="F947" t="s">
         <v>4607</v>
       </c>
-      <c r="F947" t="s">
+      <c r="G947" t="s">
         <v>4608</v>
       </c>
-      <c r="G947" t="s">
+      <c r="H947" t="s">
         <v>4609</v>
       </c>
-      <c r="H947" t="s">
-        <v>4610</v>
-      </c>
       <c r="J947" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K947" s="1" t="s">
         <v>4605</v>
-      </c>
-      <c r="K947" s="1" t="s">
-        <v>4606</v>
       </c>
       <c r="L947" t="s">
         <v>994</v>
@@ -50677,19 +50677,19 @@
         <v>1.6E+102</v>
       </c>
       <c r="F948" t="s">
+        <v>4610</v>
+      </c>
+      <c r="G948" t="s">
         <v>4611</v>
       </c>
-      <c r="G948" t="s">
+      <c r="H948" t="s">
         <v>4612</v>
       </c>
-      <c r="H948" t="s">
+      <c r="J948" t="s">
         <v>4613</v>
       </c>
-      <c r="J948" t="s">
+      <c r="K948" s="1" t="s">
         <v>4614</v>
-      </c>
-      <c r="K948" s="1" t="s">
-        <v>4615</v>
       </c>
       <c r="L948" t="s">
         <v>994</v>
@@ -50712,22 +50712,22 @@
         <v>1.6E+103</v>
       </c>
       <c r="F949" t="s">
+        <v>4615</v>
+      </c>
+      <c r="G949" t="s">
         <v>4616</v>
       </c>
-      <c r="G949" t="s">
+      <c r="H949" t="s">
         <v>4617</v>
       </c>
-      <c r="H949" t="s">
+      <c r="J949" t="s">
         <v>4618</v>
       </c>
-      <c r="J949" t="s">
+      <c r="K949" s="1" t="s">
         <v>4619</v>
       </c>
-      <c r="K949" s="1" t="s">
+      <c r="L949" t="s">
         <v>4620</v>
-      </c>
-      <c r="L949" t="s">
-        <v>4621</v>
       </c>
     </row>
     <row r="950" spans="1:12" ht="240" x14ac:dyDescent="0.25">
@@ -50747,19 +50747,19 @@
         <v>1.6000000000000001E+302</v>
       </c>
       <c r="F950" t="s">
+        <v>4621</v>
+      </c>
+      <c r="G950" t="s">
         <v>4622</v>
       </c>
-      <c r="G950" t="s">
+      <c r="H950" t="s">
         <v>4623</v>
       </c>
-      <c r="H950" t="s">
+      <c r="J950" t="s">
         <v>4624</v>
       </c>
-      <c r="J950" t="s">
+      <c r="K950" s="1" t="s">
         <v>4625</v>
-      </c>
-      <c r="K950" s="1" t="s">
-        <v>4626</v>
       </c>
       <c r="L950" t="s">
         <v>994</v>
@@ -50782,19 +50782,19 @@
         <v>1.6000000000000001E+303</v>
       </c>
       <c r="F951" t="s">
+        <v>4626</v>
+      </c>
+      <c r="G951" t="s">
         <v>4627</v>
       </c>
-      <c r="G951" t="s">
+      <c r="H951" t="s">
         <v>4628</v>
       </c>
-      <c r="H951" t="s">
-        <v>4629</v>
-      </c>
       <c r="J951" t="s">
+        <v>4624</v>
+      </c>
+      <c r="K951" s="1" t="s">
         <v>4625</v>
-      </c>
-      <c r="K951" s="1" t="s">
-        <v>4626</v>
       </c>
       <c r="L951" t="s">
         <v>994</v>
@@ -50814,22 +50814,22 @@
         <v>2</v>
       </c>
       <c r="E952" s="2" t="s">
+        <v>4629</v>
+      </c>
+      <c r="F952" t="s">
         <v>4630</v>
       </c>
-      <c r="F952" t="s">
+      <c r="G952" t="s">
         <v>4631</v>
       </c>
-      <c r="G952" t="s">
+      <c r="H952" t="s">
         <v>4632</v>
       </c>
-      <c r="H952" t="s">
+      <c r="J952" t="s">
         <v>4633</v>
       </c>
-      <c r="J952" t="s">
+      <c r="K952" s="1" t="s">
         <v>4634</v>
-      </c>
-      <c r="K952" s="1" t="s">
-        <v>4635</v>
       </c>
       <c r="L952" t="s">
         <v>994</v>
@@ -50849,25 +50849,25 @@
         <v>1</v>
       </c>
       <c r="E953" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F953" t="s">
         <v>4636</v>
       </c>
-      <c r="F953" t="s">
+      <c r="G953" t="s">
         <v>4637</v>
       </c>
-      <c r="G953" t="s">
+      <c r="H953" t="s">
         <v>4638</v>
-      </c>
-      <c r="H953" t="s">
-        <v>4639</v>
       </c>
       <c r="I953" t="s">
         <v>87</v>
       </c>
       <c r="J953" t="s">
+        <v>4639</v>
+      </c>
+      <c r="K953" s="1" t="s">
         <v>4640</v>
-      </c>
-      <c r="K953" s="1" t="s">
-        <v>4641</v>
       </c>
       <c r="L953" t="s">
         <v>3595</v>
@@ -50887,25 +50887,25 @@
         <v>2</v>
       </c>
       <c r="E954" t="s">
+        <v>4641</v>
+      </c>
+      <c r="F954" t="s">
         <v>4642</v>
       </c>
-      <c r="F954" t="s">
+      <c r="G954" t="s">
         <v>4643</v>
       </c>
-      <c r="G954" t="s">
+      <c r="H954" t="s">
         <v>4644</v>
-      </c>
-      <c r="H954" t="s">
-        <v>4645</v>
       </c>
       <c r="I954" t="s">
         <v>87</v>
       </c>
       <c r="J954" t="s">
-        <v>4646</v>
+        <v>4645</v>
       </c>
       <c r="K954" s="1" t="s">
-        <v>4641</v>
+        <v>4640</v>
       </c>
       <c r="L954" t="s">
         <v>3595</v>
@@ -50925,25 +50925,25 @@
         <v>1</v>
       </c>
       <c r="E955" t="s">
+        <v>4646</v>
+      </c>
+      <c r="F955" t="s">
         <v>4647</v>
       </c>
-      <c r="F955" t="s">
+      <c r="G955" t="s">
         <v>4648</v>
       </c>
-      <c r="G955" t="s">
+      <c r="H955" t="s">
         <v>4649</v>
-      </c>
-      <c r="H955" t="s">
-        <v>4650</v>
       </c>
       <c r="I955" t="s">
         <v>87</v>
       </c>
       <c r="J955" t="s">
+        <v>4650</v>
+      </c>
+      <c r="K955" s="1" t="s">
         <v>4651</v>
-      </c>
-      <c r="K955" s="1" t="s">
-        <v>4652</v>
       </c>
       <c r="L955" t="s">
         <v>3595</v>
@@ -50963,25 +50963,25 @@
         <v>2</v>
       </c>
       <c r="E956" t="s">
+        <v>4652</v>
+      </c>
+      <c r="F956" t="s">
         <v>4653</v>
       </c>
-      <c r="F956" t="s">
+      <c r="G956" t="s">
         <v>4654</v>
       </c>
-      <c r="G956" t="s">
+      <c r="H956" t="s">
         <v>4655</v>
-      </c>
-      <c r="H956" t="s">
-        <v>4656</v>
       </c>
       <c r="I956" t="s">
         <v>87</v>
       </c>
       <c r="J956" t="s">
+        <v>4650</v>
+      </c>
+      <c r="K956" s="1" t="s">
         <v>4651</v>
-      </c>
-      <c r="K956" s="1" t="s">
-        <v>4652</v>
       </c>
       <c r="L956" t="s">
         <v>3595</v>
@@ -51001,25 +51001,25 @@
         <v>1</v>
       </c>
       <c r="E957" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F957" t="s">
         <v>4657</v>
       </c>
-      <c r="F957" t="s">
+      <c r="G957" t="s">
         <v>4658</v>
       </c>
-      <c r="G957" t="s">
+      <c r="H957" t="s">
         <v>4659</v>
-      </c>
-      <c r="H957" t="s">
-        <v>4660</v>
       </c>
       <c r="I957" t="s">
         <v>87</v>
       </c>
       <c r="J957" t="s">
+        <v>4660</v>
+      </c>
+      <c r="K957" s="1" t="s">
         <v>4661</v>
-      </c>
-      <c r="K957" s="1" t="s">
-        <v>4662</v>
       </c>
       <c r="L957" t="s">
         <v>3595</v>
@@ -51039,25 +51039,25 @@
         <v>2</v>
       </c>
       <c r="E958" t="s">
+        <v>4662</v>
+      </c>
+      <c r="F958" t="s">
         <v>4663</v>
       </c>
-      <c r="F958" t="s">
+      <c r="G958" t="s">
         <v>4664</v>
       </c>
-      <c r="G958" t="s">
+      <c r="H958" t="s">
         <v>4665</v>
-      </c>
-      <c r="H958" t="s">
-        <v>4666</v>
       </c>
       <c r="I958" t="s">
         <v>87</v>
       </c>
       <c r="J958" t="s">
+        <v>4660</v>
+      </c>
+      <c r="K958" s="1" t="s">
         <v>4661</v>
-      </c>
-      <c r="K958" s="1" t="s">
-        <v>4662</v>
       </c>
       <c r="L958" t="s">
         <v>3595</v>
@@ -51077,25 +51077,25 @@
         <v>1</v>
       </c>
       <c r="E959" t="s">
+        <v>4666</v>
+      </c>
+      <c r="F959" t="s">
         <v>4667</v>
       </c>
-      <c r="F959" t="s">
+      <c r="G959" t="s">
         <v>4668</v>
       </c>
-      <c r="G959" t="s">
+      <c r="H959" t="s">
         <v>4669</v>
-      </c>
-      <c r="H959" t="s">
-        <v>4670</v>
       </c>
       <c r="I959" t="s">
         <v>87</v>
       </c>
       <c r="J959" t="s">
+        <v>4670</v>
+      </c>
+      <c r="K959" s="1" t="s">
         <v>4671</v>
-      </c>
-      <c r="K959" s="1" t="s">
-        <v>4672</v>
       </c>
       <c r="L959" t="s">
         <v>3595</v>
@@ -51115,25 +51115,25 @@
         <v>2</v>
       </c>
       <c r="E960" t="s">
+        <v>4672</v>
+      </c>
+      <c r="F960" t="s">
+        <v>4667</v>
+      </c>
+      <c r="G960" t="s">
+        <v>4668</v>
+      </c>
+      <c r="H960" t="s">
         <v>4673</v>
-      </c>
-      <c r="F960" t="s">
-        <v>4668</v>
-      </c>
-      <c r="G960" t="s">
-        <v>4669</v>
-      </c>
-      <c r="H960" t="s">
-        <v>4674</v>
       </c>
       <c r="I960" t="s">
         <v>87</v>
       </c>
       <c r="J960" t="s">
+        <v>4670</v>
+      </c>
+      <c r="K960" s="1" t="s">
         <v>4671</v>
-      </c>
-      <c r="K960" s="1" t="s">
-        <v>4672</v>
       </c>
       <c r="L960" t="s">
         <v>3595</v>
@@ -51153,25 +51153,25 @@
         <v>1</v>
       </c>
       <c r="E961" t="s">
+        <v>4674</v>
+      </c>
+      <c r="F961" t="s">
         <v>4675</v>
       </c>
-      <c r="F961" t="s">
+      <c r="G961" t="s">
         <v>4676</v>
       </c>
-      <c r="G961" t="s">
+      <c r="H961" t="s">
         <v>4677</v>
-      </c>
-      <c r="H961" t="s">
-        <v>4678</v>
       </c>
       <c r="I961" t="s">
         <v>87</v>
       </c>
       <c r="J961" t="s">
+        <v>4678</v>
+      </c>
+      <c r="K961" s="1" t="s">
         <v>4679</v>
-      </c>
-      <c r="K961" s="1" t="s">
-        <v>4680</v>
       </c>
       <c r="L961" t="s">
         <v>3595</v>
@@ -51191,25 +51191,25 @@
         <v>2</v>
       </c>
       <c r="E962" t="s">
+        <v>4680</v>
+      </c>
+      <c r="F962" t="s">
         <v>4681</v>
       </c>
-      <c r="F962" t="s">
+      <c r="G962" t="s">
         <v>4682</v>
       </c>
-      <c r="G962" t="s">
+      <c r="H962" t="s">
         <v>4683</v>
-      </c>
-      <c r="H962" t="s">
-        <v>4684</v>
       </c>
       <c r="I962" t="s">
         <v>87</v>
       </c>
       <c r="J962" t="s">
+        <v>4678</v>
+      </c>
+      <c r="K962" s="1" t="s">
         <v>4679</v>
-      </c>
-      <c r="K962" s="1" t="s">
-        <v>4680</v>
       </c>
       <c r="L962" t="s">
         <v>3595</v>
@@ -51229,25 +51229,25 @@
         <v>1</v>
       </c>
       <c r="E963" t="s">
+        <v>4684</v>
+      </c>
+      <c r="F963" t="s">
         <v>4685</v>
       </c>
-      <c r="F963" t="s">
+      <c r="G963" t="s">
         <v>4686</v>
       </c>
-      <c r="G963" t="s">
+      <c r="H963" t="s">
         <v>4687</v>
-      </c>
-      <c r="H963" t="s">
-        <v>4688</v>
       </c>
       <c r="I963" t="s">
         <v>87</v>
       </c>
       <c r="J963" t="s">
+        <v>4688</v>
+      </c>
+      <c r="K963" s="1" t="s">
         <v>4689</v>
-      </c>
-      <c r="K963" s="1" t="s">
-        <v>4690</v>
       </c>
       <c r="L963" t="s">
         <v>3595</v>
@@ -51267,25 +51267,25 @@
         <v>2</v>
       </c>
       <c r="E964" t="s">
+        <v>4690</v>
+      </c>
+      <c r="F964" t="s">
         <v>4691</v>
       </c>
-      <c r="F964" t="s">
+      <c r="G964" t="s">
         <v>4692</v>
       </c>
-      <c r="G964" t="s">
+      <c r="H964" t="s">
         <v>4693</v>
-      </c>
-      <c r="H964" t="s">
-        <v>4694</v>
       </c>
       <c r="I964" t="s">
         <v>87</v>
       </c>
       <c r="J964" t="s">
+        <v>4688</v>
+      </c>
+      <c r="K964" s="1" t="s">
         <v>4689</v>
-      </c>
-      <c r="K964" s="1" t="s">
-        <v>4690</v>
       </c>
       <c r="L964" t="s">
         <v>3595</v>
@@ -51305,25 +51305,25 @@
         <v>1</v>
       </c>
       <c r="E965" t="s">
+        <v>4694</v>
+      </c>
+      <c r="F965" t="s">
         <v>4695</v>
       </c>
-      <c r="F965" t="s">
+      <c r="G965" t="s">
         <v>4696</v>
       </c>
-      <c r="G965" t="s">
+      <c r="H965" t="s">
         <v>4697</v>
-      </c>
-      <c r="H965" t="s">
-        <v>4698</v>
       </c>
       <c r="I965" t="s">
         <v>87</v>
       </c>
       <c r="J965" t="s">
+        <v>4698</v>
+      </c>
+      <c r="K965" s="1" t="s">
         <v>4699</v>
-      </c>
-      <c r="K965" s="1" t="s">
-        <v>4700</v>
       </c>
       <c r="L965" t="s">
         <v>3595</v>
@@ -51343,25 +51343,25 @@
         <v>2</v>
       </c>
       <c r="E966" t="s">
+        <v>4700</v>
+      </c>
+      <c r="F966" t="s">
         <v>4701</v>
       </c>
-      <c r="F966" t="s">
+      <c r="G966" t="s">
         <v>4702</v>
       </c>
-      <c r="G966" t="s">
+      <c r="H966" t="s">
         <v>4703</v>
-      </c>
-      <c r="H966" t="s">
-        <v>4704</v>
       </c>
       <c r="I966" t="s">
         <v>87</v>
       </c>
       <c r="J966" t="s">
+        <v>4698</v>
+      </c>
+      <c r="K966" s="1" t="s">
         <v>4699</v>
-      </c>
-      <c r="K966" s="1" t="s">
-        <v>4700</v>
       </c>
       <c r="L966" t="s">
         <v>3595</v>
@@ -51381,25 +51381,25 @@
         <v>3</v>
       </c>
       <c r="E967" t="s">
+        <v>4704</v>
+      </c>
+      <c r="F967" t="s">
         <v>4705</v>
       </c>
-      <c r="F967" t="s">
+      <c r="G967" t="s">
         <v>4706</v>
       </c>
-      <c r="G967" t="s">
+      <c r="H967" t="s">
         <v>4707</v>
-      </c>
-      <c r="H967" t="s">
-        <v>4708</v>
       </c>
       <c r="I967" t="s">
         <v>87</v>
       </c>
       <c r="J967" t="s">
+        <v>4708</v>
+      </c>
+      <c r="K967" s="1" t="s">
         <v>4709</v>
-      </c>
-      <c r="K967" s="1" t="s">
-        <v>4710</v>
       </c>
       <c r="L967" t="s">
         <v>3595</v>
@@ -51410,7 +51410,7 @@
         <v>16</v>
       </c>
       <c r="B968" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="C968">
         <v>3</v>
@@ -51419,22 +51419,22 @@
         <v>1</v>
       </c>
       <c r="E968" t="s">
+        <v>4711</v>
+      </c>
+      <c r="F968" t="s">
         <v>4712</v>
       </c>
-      <c r="F968" t="s">
+      <c r="G968" t="s">
         <v>4713</v>
       </c>
-      <c r="G968" t="s">
+      <c r="H968" t="s">
         <v>4714</v>
       </c>
-      <c r="H968" t="s">
+      <c r="J968" t="s">
         <v>4715</v>
       </c>
-      <c r="J968" t="s">
+      <c r="K968" s="1" t="s">
         <v>4716</v>
-      </c>
-      <c r="K968" s="1" t="s">
-        <v>4717</v>
       </c>
       <c r="L968" t="s">
         <v>1445</v>
@@ -51445,7 +51445,7 @@
         <v>16</v>
       </c>
       <c r="B969" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="C969">
         <v>4</v>
@@ -51454,22 +51454,22 @@
         <v>1</v>
       </c>
       <c r="E969" t="s">
+        <v>4717</v>
+      </c>
+      <c r="F969" t="s">
         <v>4718</v>
       </c>
-      <c r="F969" t="s">
+      <c r="G969" t="s">
         <v>4719</v>
       </c>
-      <c r="G969" t="s">
+      <c r="H969" t="s">
         <v>4720</v>
       </c>
-      <c r="H969" t="s">
+      <c r="J969" t="s">
         <v>4721</v>
       </c>
-      <c r="J969" t="s">
+      <c r="K969" s="1" t="s">
         <v>4722</v>
-      </c>
-      <c r="K969" s="1" t="s">
-        <v>4723</v>
       </c>
       <c r="L969" t="s">
         <v>1445</v>
@@ -51480,7 +51480,7 @@
         <v>16</v>
       </c>
       <c r="B970" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
       <c r="C970">
         <v>4</v>
@@ -51489,22 +51489,22 @@
         <v>2</v>
       </c>
       <c r="E970" t="s">
+        <v>4723</v>
+      </c>
+      <c r="F970" t="s">
         <v>4724</v>
       </c>
-      <c r="F970" t="s">
+      <c r="G970" t="s">
         <v>4725</v>
       </c>
-      <c r="G970" t="s">
+      <c r="H970" t="s">
         <v>4726</v>
       </c>
-      <c r="H970" t="s">
-        <v>4727</v>
-      </c>
       <c r="J970" t="s">
+        <v>4721</v>
+      </c>
+      <c r="K970" s="1" t="s">
         <v>4722</v>
-      </c>
-      <c r="K970" s="1" t="s">
-        <v>4723</v>
       </c>
       <c r="L970" t="s">
         <v>1445</v>
@@ -51524,22 +51524,22 @@
         <v>1</v>
       </c>
       <c r="E971" t="s">
+        <v>4727</v>
+      </c>
+      <c r="F971" t="s">
         <v>4728</v>
       </c>
-      <c r="F971" t="s">
+      <c r="G971" t="s">
         <v>4729</v>
       </c>
-      <c r="G971" t="s">
+      <c r="H971" t="s">
         <v>4730</v>
       </c>
-      <c r="H971" t="s">
+      <c r="J971" t="s">
         <v>4731</v>
       </c>
-      <c r="J971" t="s">
+      <c r="K971" s="1" t="s">
         <v>4732</v>
-      </c>
-      <c r="K971" s="1" t="s">
-        <v>4733</v>
       </c>
       <c r="L971" t="s">
         <v>994</v>
@@ -51559,22 +51559,22 @@
         <v>2</v>
       </c>
       <c r="E972" t="s">
+        <v>4733</v>
+      </c>
+      <c r="F972" t="s">
+        <v>4728</v>
+      </c>
+      <c r="G972" t="s">
         <v>4734</v>
       </c>
-      <c r="F972" t="s">
-        <v>4729</v>
-      </c>
-      <c r="G972" t="s">
+      <c r="H972" t="s">
         <v>4735</v>
       </c>
-      <c r="H972" t="s">
+      <c r="J972" t="s">
         <v>4736</v>
       </c>
-      <c r="J972" t="s">
+      <c r="K972" s="1" t="s">
         <v>4737</v>
-      </c>
-      <c r="K972" s="1" t="s">
-        <v>4738</v>
       </c>
       <c r="L972" t="s">
         <v>994</v>
@@ -51594,22 +51594,22 @@
         <v>3</v>
       </c>
       <c r="E973" t="s">
+        <v>4738</v>
+      </c>
+      <c r="F973" t="s">
         <v>4739</v>
       </c>
-      <c r="F973" t="s">
+      <c r="G973" t="s">
         <v>4740</v>
       </c>
-      <c r="G973" t="s">
+      <c r="H973" t="s">
         <v>4741</v>
       </c>
-      <c r="H973" t="s">
+      <c r="J973" t="s">
         <v>4742</v>
       </c>
-      <c r="J973" t="s">
+      <c r="K973" s="1" t="s">
         <v>4743</v>
-      </c>
-      <c r="K973" s="1" t="s">
-        <v>4744</v>
       </c>
       <c r="L973" t="s">
         <v>994</v>
@@ -51629,22 +51629,22 @@
         <v>1</v>
       </c>
       <c r="E974" t="s">
+        <v>4744</v>
+      </c>
+      <c r="F974" t="s">
         <v>4745</v>
       </c>
-      <c r="F974" t="s">
+      <c r="G974" t="s">
         <v>4746</v>
       </c>
-      <c r="G974" t="s">
+      <c r="H974" t="s">
         <v>4747</v>
       </c>
-      <c r="H974" t="s">
+      <c r="J974" t="s">
         <v>4748</v>
       </c>
-      <c r="J974" t="s">
+      <c r="K974" s="1" t="s">
         <v>4749</v>
-      </c>
-      <c r="K974" s="1" t="s">
-        <v>4750</v>
       </c>
       <c r="L974" t="s">
         <v>994</v>
@@ -51664,22 +51664,22 @@
         <v>2</v>
       </c>
       <c r="E975" t="s">
+        <v>4750</v>
+      </c>
+      <c r="F975" t="s">
+        <v>4745</v>
+      </c>
+      <c r="G975" t="s">
         <v>4751</v>
       </c>
-      <c r="F975" t="s">
-        <v>4746</v>
-      </c>
-      <c r="G975" t="s">
+      <c r="H975" t="s">
         <v>4752</v>
       </c>
-      <c r="H975" t="s">
+      <c r="J975" t="s">
         <v>4753</v>
       </c>
-      <c r="J975" t="s">
+      <c r="K975" s="1" t="s">
         <v>4754</v>
-      </c>
-      <c r="K975" s="1" t="s">
-        <v>4755</v>
       </c>
       <c r="L975" t="s">
         <v>994</v>
@@ -51699,22 +51699,22 @@
         <v>4</v>
       </c>
       <c r="E976" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F976" t="s">
+        <v>4745</v>
+      </c>
+      <c r="G976" t="s">
         <v>4756</v>
       </c>
-      <c r="F976" t="s">
-        <v>4746</v>
-      </c>
-      <c r="G976" t="s">
+      <c r="H976" t="s">
         <v>4757</v>
       </c>
-      <c r="H976" t="s">
-        <v>4758</v>
-      </c>
       <c r="J976" t="s">
+        <v>4748</v>
+      </c>
+      <c r="K976" s="1" t="s">
         <v>4749</v>
-      </c>
-      <c r="K976" s="1" t="s">
-        <v>4750</v>
       </c>
       <c r="L976" t="s">
         <v>994</v>
@@ -51734,22 +51734,22 @@
         <v>1</v>
       </c>
       <c r="E977" t="s">
+        <v>4758</v>
+      </c>
+      <c r="F977" t="s">
         <v>4759</v>
       </c>
-      <c r="F977" t="s">
+      <c r="G977" t="s">
         <v>4760</v>
       </c>
-      <c r="G977" t="s">
+      <c r="H977" t="s">
         <v>4761</v>
       </c>
-      <c r="H977" t="s">
+      <c r="J977" t="s">
         <v>4762</v>
       </c>
-      <c r="J977" t="s">
+      <c r="K977" s="1" t="s">
         <v>4763</v>
-      </c>
-      <c r="K977" s="1" t="s">
-        <v>4764</v>
       </c>
       <c r="L977" t="s">
         <v>994</v>
@@ -51769,22 +51769,22 @@
         <v>2</v>
       </c>
       <c r="E978" t="s">
+        <v>4764</v>
+      </c>
+      <c r="F978" t="s">
+        <v>4759</v>
+      </c>
+      <c r="G978" t="s">
         <v>4765</v>
       </c>
-      <c r="F978" t="s">
-        <v>4760</v>
-      </c>
-      <c r="G978" t="s">
+      <c r="H978" t="s">
         <v>4766</v>
       </c>
-      <c r="H978" t="s">
+      <c r="J978" t="s">
         <v>4767</v>
       </c>
-      <c r="J978" t="s">
+      <c r="K978" s="1" t="s">
         <v>4768</v>
-      </c>
-      <c r="K978" s="1" t="s">
-        <v>4769</v>
       </c>
       <c r="L978" t="s">
         <v>994</v>
@@ -51804,22 +51804,22 @@
         <v>1</v>
       </c>
       <c r="E979" t="s">
+        <v>4769</v>
+      </c>
+      <c r="F979" t="s">
         <v>4770</v>
       </c>
-      <c r="F979" t="s">
+      <c r="G979" t="s">
         <v>4771</v>
       </c>
-      <c r="G979" t="s">
+      <c r="H979" t="s">
         <v>4772</v>
       </c>
-      <c r="H979" t="s">
+      <c r="J979" t="s">
         <v>4773</v>
       </c>
-      <c r="J979" t="s">
+      <c r="K979" s="1" t="s">
         <v>4774</v>
-      </c>
-      <c r="K979" s="1" t="s">
-        <v>4775</v>
       </c>
       <c r="L979" t="s">
         <v>994</v>
@@ -51839,22 +51839,22 @@
         <v>2</v>
       </c>
       <c r="E980" t="s">
+        <v>4775</v>
+      </c>
+      <c r="F980" t="s">
+        <v>4770</v>
+      </c>
+      <c r="G980" t="s">
         <v>4776</v>
       </c>
-      <c r="F980" t="s">
-        <v>4771</v>
-      </c>
-      <c r="G980" t="s">
+      <c r="H980" t="s">
         <v>4777</v>
       </c>
-      <c r="H980" t="s">
-        <v>4778</v>
-      </c>
       <c r="J980" t="s">
+        <v>4773</v>
+      </c>
+      <c r="K980" s="1" t="s">
         <v>4774</v>
-      </c>
-      <c r="K980" s="1" t="s">
-        <v>4775</v>
       </c>
       <c r="L980" t="s">
         <v>994</v>
@@ -51874,22 +51874,22 @@
         <v>3</v>
       </c>
       <c r="E981" t="s">
+        <v>4778</v>
+      </c>
+      <c r="F981" t="s">
+        <v>4770</v>
+      </c>
+      <c r="G981" t="s">
         <v>4779</v>
       </c>
-      <c r="F981" t="s">
-        <v>4771</v>
-      </c>
-      <c r="G981" t="s">
+      <c r="H981" t="s">
         <v>4780</v>
       </c>
-      <c r="H981" t="s">
+      <c r="J981" t="s">
         <v>4781</v>
       </c>
-      <c r="J981" t="s">
+      <c r="K981" s="1" t="s">
         <v>4782</v>
-      </c>
-      <c r="K981" s="1" t="s">
-        <v>4783</v>
       </c>
       <c r="L981" t="s">
         <v>994</v>
@@ -51909,25 +51909,25 @@
         <v>1</v>
       </c>
       <c r="E982" t="s">
+        <v>4783</v>
+      </c>
+      <c r="F982" t="s">
         <v>4784</v>
       </c>
-      <c r="F982" t="s">
+      <c r="G982" t="s">
         <v>4785</v>
       </c>
-      <c r="G982" t="s">
+      <c r="H982" t="s">
         <v>4786</v>
       </c>
-      <c r="H982" t="s">
+      <c r="J982" t="s">
         <v>4787</v>
       </c>
-      <c r="J982" t="s">
+      <c r="K982" s="1" t="s">
         <v>4788</v>
       </c>
-      <c r="K982" s="1" t="s">
-        <v>4789</v>
-      </c>
       <c r="L982" t="s">
-        <v>4621</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="983" spans="1:12" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
@@ -51944,22 +51944,22 @@
         <v>2</v>
       </c>
       <c r="E983" t="s">
+        <v>4789</v>
+      </c>
+      <c r="F983" t="s">
+        <v>4784</v>
+      </c>
+      <c r="G983" t="s">
         <v>4790</v>
       </c>
-      <c r="F983" t="s">
-        <v>4785</v>
-      </c>
-      <c r="G983" t="s">
+      <c r="H983" t="s">
         <v>4791</v>
       </c>
-      <c r="H983" t="s">
+      <c r="J983" t="s">
         <v>4792</v>
       </c>
-      <c r="J983" t="s">
+      <c r="K983" s="1" t="s">
         <v>4793</v>
-      </c>
-      <c r="K983" s="1" t="s">
-        <v>4794</v>
       </c>
       <c r="L983" t="s">
         <v>994</v>
@@ -51979,22 +51979,22 @@
         <v>1</v>
       </c>
       <c r="E984" t="s">
+        <v>4794</v>
+      </c>
+      <c r="F984" t="s">
         <v>4795</v>
       </c>
-      <c r="F984" t="s">
+      <c r="G984" t="s">
         <v>4796</v>
       </c>
-      <c r="G984" t="s">
+      <c r="H984" t="s">
         <v>4797</v>
       </c>
-      <c r="H984" t="s">
+      <c r="J984" t="s">
         <v>4798</v>
       </c>
-      <c r="J984" t="s">
+      <c r="K984" s="1" t="s">
         <v>4799</v>
-      </c>
-      <c r="K984" s="1" t="s">
-        <v>4800</v>
       </c>
       <c r="L984" t="s">
         <v>994</v>
@@ -52014,22 +52014,22 @@
         <v>1</v>
       </c>
       <c r="E985" t="s">
+        <v>4800</v>
+      </c>
+      <c r="F985" t="s">
         <v>4801</v>
       </c>
-      <c r="F985" t="s">
+      <c r="G985" t="s">
         <v>4802</v>
       </c>
-      <c r="G985" t="s">
+      <c r="H985" t="s">
         <v>4803</v>
       </c>
-      <c r="H985" t="s">
+      <c r="J985" t="s">
         <v>4804</v>
       </c>
-      <c r="J985" t="s">
+      <c r="K985" s="1" t="s">
         <v>4805</v>
-      </c>
-      <c r="K985" s="1" t="s">
-        <v>4806</v>
       </c>
       <c r="L985" t="s">
         <v>994</v>
@@ -52049,22 +52049,22 @@
         <v>1</v>
       </c>
       <c r="E986" t="s">
+        <v>4806</v>
+      </c>
+      <c r="F986" t="s">
         <v>4807</v>
       </c>
-      <c r="F986" t="s">
+      <c r="G986" t="s">
         <v>4808</v>
       </c>
-      <c r="G986" t="s">
+      <c r="H986" t="s">
         <v>4809</v>
       </c>
-      <c r="H986" t="s">
+      <c r="J986" t="s">
         <v>4810</v>
       </c>
-      <c r="J986" t="s">
+      <c r="K986" s="1" t="s">
         <v>4811</v>
-      </c>
-      <c r="K986" s="1" t="s">
-        <v>4812</v>
       </c>
       <c r="L986" t="s">
         <v>994</v>
@@ -52084,22 +52084,22 @@
         <v>2</v>
       </c>
       <c r="E987" t="s">
+        <v>4812</v>
+      </c>
+      <c r="F987" t="s">
+        <v>4807</v>
+      </c>
+      <c r="G987" t="s">
         <v>4813</v>
       </c>
-      <c r="F987" t="s">
-        <v>4808</v>
-      </c>
-      <c r="G987" t="s">
+      <c r="H987" t="s">
         <v>4814</v>
       </c>
-      <c r="H987" t="s">
-        <v>4815</v>
-      </c>
       <c r="J987" t="s">
+        <v>4810</v>
+      </c>
+      <c r="K987" s="1" t="s">
         <v>4811</v>
-      </c>
-      <c r="K987" s="1" t="s">
-        <v>4812</v>
       </c>
       <c r="L987" t="s">
         <v>994</v>
@@ -52119,22 +52119,22 @@
         <v>3</v>
       </c>
       <c r="E988" t="s">
+        <v>4815</v>
+      </c>
+      <c r="F988" t="s">
         <v>4816</v>
       </c>
-      <c r="F988" t="s">
+      <c r="G988" t="s">
         <v>4817</v>
       </c>
-      <c r="G988" t="s">
+      <c r="H988" t="s">
         <v>4818</v>
       </c>
-      <c r="H988" t="s">
+      <c r="J988" t="s">
         <v>4819</v>
       </c>
-      <c r="J988" t="s">
+      <c r="K988" s="1" t="s">
         <v>4820</v>
-      </c>
-      <c r="K988" s="1" t="s">
-        <v>4821</v>
       </c>
       <c r="L988" t="s">
         <v>994</v>
@@ -52154,22 +52154,22 @@
         <v>1</v>
       </c>
       <c r="E989" t="s">
+        <v>4821</v>
+      </c>
+      <c r="F989" t="s">
         <v>4822</v>
       </c>
-      <c r="F989" t="s">
+      <c r="G989" t="s">
         <v>4823</v>
       </c>
-      <c r="G989" t="s">
+      <c r="H989" t="s">
         <v>4824</v>
       </c>
-      <c r="H989" t="s">
+      <c r="J989" t="s">
         <v>4825</v>
       </c>
-      <c r="J989" t="s">
+      <c r="K989" s="1" t="s">
         <v>4826</v>
-      </c>
-      <c r="K989" s="1" t="s">
-        <v>4827</v>
       </c>
       <c r="L989" t="s">
         <v>994</v>
@@ -52189,22 +52189,22 @@
         <v>2</v>
       </c>
       <c r="E990" t="s">
+        <v>4827</v>
+      </c>
+      <c r="F990" t="s">
+        <v>4822</v>
+      </c>
+      <c r="G990" t="s">
         <v>4828</v>
       </c>
-      <c r="F990" t="s">
-        <v>4823</v>
-      </c>
-      <c r="G990" t="s">
+      <c r="H990" t="s">
         <v>4829</v>
       </c>
-      <c r="H990" t="s">
+      <c r="J990" t="s">
         <v>4830</v>
       </c>
-      <c r="J990" t="s">
+      <c r="K990" s="1" t="s">
         <v>4831</v>
-      </c>
-      <c r="K990" s="1" t="s">
-        <v>4832</v>
       </c>
       <c r="L990" t="s">
         <v>994</v>
@@ -52224,22 +52224,22 @@
         <v>1</v>
       </c>
       <c r="E991" t="s">
+        <v>4832</v>
+      </c>
+      <c r="F991" t="s">
         <v>4833</v>
       </c>
-      <c r="F991" t="s">
+      <c r="G991" t="s">
         <v>4834</v>
       </c>
-      <c r="G991" t="s">
+      <c r="H991" t="s">
         <v>4835</v>
       </c>
-      <c r="H991" t="s">
+      <c r="J991" t="s">
         <v>4836</v>
       </c>
-      <c r="J991" t="s">
+      <c r="K991" s="1" t="s">
         <v>4837</v>
-      </c>
-      <c r="K991" s="1" t="s">
-        <v>4838</v>
       </c>
       <c r="L991" t="s">
         <v>994</v>
@@ -52259,22 +52259,22 @@
         <v>2</v>
       </c>
       <c r="E992" t="s">
+        <v>4838</v>
+      </c>
+      <c r="F992" t="s">
         <v>4839</v>
       </c>
-      <c r="F992" t="s">
+      <c r="G992" t="s">
         <v>4840</v>
       </c>
-      <c r="G992" t="s">
+      <c r="H992" t="s">
         <v>4841</v>
       </c>
-      <c r="H992" t="s">
-        <v>4842</v>
-      </c>
       <c r="J992" t="s">
+        <v>4836</v>
+      </c>
+      <c r="K992" s="1" t="s">
         <v>4837</v>
-      </c>
-      <c r="K992" s="1" t="s">
-        <v>4838</v>
       </c>
       <c r="L992" t="s">
         <v>994</v>
@@ -52294,22 +52294,22 @@
         <v>3</v>
       </c>
       <c r="E993" t="s">
+        <v>4842</v>
+      </c>
+      <c r="F993" t="s">
+        <v>4833</v>
+      </c>
+      <c r="G993" t="s">
         <v>4843</v>
       </c>
-      <c r="F993" t="s">
-        <v>4834</v>
-      </c>
-      <c r="G993" t="s">
+      <c r="H993" t="s">
         <v>4844</v>
       </c>
-      <c r="H993" t="s">
+      <c r="J993" t="s">
         <v>4845</v>
       </c>
-      <c r="J993" t="s">
+      <c r="K993" s="1" t="s">
         <v>4846</v>
-      </c>
-      <c r="K993" s="1" t="s">
-        <v>4847</v>
       </c>
       <c r="L993" t="s">
         <v>994</v>
@@ -52329,22 +52329,22 @@
         <v>1</v>
       </c>
       <c r="E994" t="s">
+        <v>4847</v>
+      </c>
+      <c r="F994" t="s">
         <v>4848</v>
       </c>
-      <c r="F994" t="s">
+      <c r="G994" t="s">
         <v>4849</v>
       </c>
-      <c r="G994" t="s">
+      <c r="H994" t="s">
         <v>4850</v>
       </c>
-      <c r="H994" t="s">
+      <c r="J994" t="s">
         <v>4851</v>
       </c>
-      <c r="J994" t="s">
+      <c r="K994" s="1" t="s">
         <v>4852</v>
-      </c>
-      <c r="K994" s="1" t="s">
-        <v>4853</v>
       </c>
       <c r="L994" t="s">
         <v>994</v>
@@ -52364,22 +52364,22 @@
         <v>2</v>
       </c>
       <c r="E995" t="s">
+        <v>4853</v>
+      </c>
+      <c r="F995" t="s">
         <v>4854</v>
       </c>
-      <c r="F995" t="s">
+      <c r="G995" t="s">
         <v>4855</v>
       </c>
-      <c r="G995" t="s">
+      <c r="H995" t="s">
         <v>4856</v>
       </c>
-      <c r="H995" t="s">
-        <v>4857</v>
-      </c>
       <c r="J995" t="s">
+        <v>4851</v>
+      </c>
+      <c r="K995" s="1" t="s">
         <v>4852</v>
-      </c>
-      <c r="K995" s="1" t="s">
-        <v>4853</v>
       </c>
       <c r="L995" t="s">
         <v>994</v>
@@ -52399,22 +52399,22 @@
         <v>3</v>
       </c>
       <c r="E996" t="s">
+        <v>4857</v>
+      </c>
+      <c r="F996" t="s">
         <v>4858</v>
       </c>
-      <c r="F996" t="s">
+      <c r="G996" t="s">
         <v>4859</v>
       </c>
-      <c r="G996" t="s">
+      <c r="H996" t="s">
         <v>4860</v>
       </c>
-      <c r="H996" t="s">
+      <c r="J996" t="s">
         <v>4861</v>
       </c>
-      <c r="J996" t="s">
+      <c r="K996" s="1" t="s">
         <v>4862</v>
-      </c>
-      <c r="K996" s="1" t="s">
-        <v>4863</v>
       </c>
       <c r="L996" t="s">
         <v>994</v>
@@ -52434,22 +52434,22 @@
         <v>2</v>
       </c>
       <c r="E997" t="s">
+        <v>4863</v>
+      </c>
+      <c r="F997" t="s">
         <v>4864</v>
       </c>
-      <c r="F997" t="s">
+      <c r="G997" t="s">
         <v>4865</v>
       </c>
-      <c r="G997" t="s">
+      <c r="H997" t="s">
         <v>4866</v>
       </c>
-      <c r="H997" t="s">
+      <c r="J997" t="s">
         <v>4867</v>
       </c>
-      <c r="J997" t="s">
+      <c r="K997" s="1" t="s">
         <v>4868</v>
-      </c>
-      <c r="K997" s="1" t="s">
-        <v>4869</v>
       </c>
       <c r="L997" t="s">
         <v>994</v>
@@ -52469,22 +52469,22 @@
         <v>3</v>
       </c>
       <c r="E998" t="s">
+        <v>4869</v>
+      </c>
+      <c r="F998" t="s">
         <v>4870</v>
       </c>
-      <c r="F998" t="s">
+      <c r="G998" t="s">
         <v>4871</v>
       </c>
-      <c r="G998" t="s">
+      <c r="H998" t="s">
         <v>4872</v>
       </c>
-      <c r="H998" t="s">
-        <v>4873</v>
-      </c>
       <c r="J998" t="s">
+        <v>4867</v>
+      </c>
+      <c r="K998" s="1" t="s">
         <v>4868</v>
-      </c>
-      <c r="K998" s="1" t="s">
-        <v>4869</v>
       </c>
       <c r="L998" t="s">
         <v>994</v>
@@ -52504,22 +52504,22 @@
         <v>1</v>
       </c>
       <c r="E999" t="s">
+        <v>4873</v>
+      </c>
+      <c r="F999" t="s">
         <v>4874</v>
       </c>
-      <c r="F999" t="s">
+      <c r="G999" t="s">
         <v>4875</v>
       </c>
-      <c r="G999" t="s">
+      <c r="H999" t="s">
         <v>4876</v>
       </c>
-      <c r="H999" t="s">
+      <c r="J999" t="s">
         <v>4877</v>
       </c>
-      <c r="J999" t="s">
+      <c r="K999" s="1" t="s">
         <v>4878</v>
-      </c>
-      <c r="K999" s="1" t="s">
-        <v>4879</v>
       </c>
       <c r="L999" t="s">
         <v>994</v>
@@ -52539,22 +52539,22 @@
         <v>2</v>
       </c>
       <c r="E1000" t="s">
+        <v>4879</v>
+      </c>
+      <c r="F1000" t="s">
         <v>4880</v>
       </c>
-      <c r="F1000" t="s">
+      <c r="G1000" t="s">
         <v>4881</v>
       </c>
-      <c r="G1000" t="s">
+      <c r="H1000" t="s">
         <v>4882</v>
       </c>
-      <c r="H1000" t="s">
-        <v>4883</v>
-      </c>
       <c r="J1000" t="s">
+        <v>4877</v>
+      </c>
+      <c r="K1000" s="1" t="s">
         <v>4878</v>
-      </c>
-      <c r="K1000" s="1" t="s">
-        <v>4879</v>
       </c>
       <c r="L1000" t="s">
         <v>994</v>
@@ -52574,22 +52574,22 @@
         <v>3</v>
       </c>
       <c r="E1001" t="s">
+        <v>4883</v>
+      </c>
+      <c r="F1001" t="s">
         <v>4884</v>
       </c>
-      <c r="F1001" t="s">
+      <c r="G1001" t="s">
         <v>4885</v>
       </c>
-      <c r="G1001" t="s">
+      <c r="H1001" t="s">
         <v>4886</v>
       </c>
-      <c r="H1001" t="s">
+      <c r="J1001" t="s">
         <v>4887</v>
       </c>
-      <c r="J1001" t="s">
+      <c r="K1001" s="1" t="s">
         <v>4888</v>
-      </c>
-      <c r="K1001" s="1" t="s">
-        <v>4889</v>
       </c>
       <c r="L1001" t="s">
         <v>994</v>
@@ -52609,22 +52609,22 @@
         <v>1</v>
       </c>
       <c r="E1002" t="s">
+        <v>4889</v>
+      </c>
+      <c r="F1002" t="s">
         <v>4890</v>
       </c>
-      <c r="F1002" t="s">
+      <c r="G1002" t="s">
         <v>4891</v>
       </c>
-      <c r="G1002" t="s">
+      <c r="H1002" t="s">
         <v>4892</v>
       </c>
-      <c r="H1002" t="s">
+      <c r="J1002" t="s">
         <v>4893</v>
       </c>
-      <c r="J1002" t="s">
+      <c r="K1002" s="1" t="s">
         <v>4894</v>
-      </c>
-      <c r="K1002" s="1" t="s">
-        <v>4895</v>
       </c>
       <c r="L1002" t="s">
         <v>994</v>
@@ -52644,22 +52644,22 @@
         <v>1</v>
       </c>
       <c r="E1003" t="s">
+        <v>4895</v>
+      </c>
+      <c r="F1003" t="s">
         <v>4896</v>
       </c>
-      <c r="F1003" t="s">
+      <c r="G1003" t="s">
         <v>4897</v>
       </c>
-      <c r="G1003" t="s">
+      <c r="H1003" t="s">
         <v>4898</v>
       </c>
-      <c r="H1003" t="s">
+      <c r="J1003" t="s">
         <v>4899</v>
       </c>
-      <c r="J1003" t="s">
+      <c r="K1003" s="1" t="s">
         <v>4900</v>
-      </c>
-      <c r="K1003" s="1" t="s">
-        <v>4901</v>
       </c>
       <c r="L1003" t="s">
         <v>994</v>
@@ -52679,22 +52679,22 @@
         <v>2</v>
       </c>
       <c r="E1004" t="s">
+        <v>4901</v>
+      </c>
+      <c r="F1004" t="s">
         <v>4902</v>
       </c>
-      <c r="F1004" t="s">
+      <c r="G1004" t="s">
         <v>4903</v>
       </c>
-      <c r="G1004" t="s">
+      <c r="H1004" t="s">
         <v>4904</v>
       </c>
-      <c r="H1004" t="s">
-        <v>4905</v>
-      </c>
       <c r="J1004" t="s">
+        <v>4899</v>
+      </c>
+      <c r="K1004" s="1" t="s">
         <v>4900</v>
-      </c>
-      <c r="K1004" s="1" t="s">
-        <v>4901</v>
       </c>
       <c r="L1004" t="s">
         <v>994</v>
@@ -52714,25 +52714,25 @@
         <v>1</v>
       </c>
       <c r="E1005" t="s">
+        <v>4905</v>
+      </c>
+      <c r="F1005" t="s">
         <v>4906</v>
       </c>
-      <c r="F1005" t="s">
+      <c r="G1005" t="s">
         <v>4907</v>
       </c>
-      <c r="G1005" t="s">
+      <c r="H1005" t="s">
         <v>4908</v>
       </c>
-      <c r="H1005" t="s">
+      <c r="J1005" t="s">
         <v>4909</v>
       </c>
-      <c r="J1005" t="s">
+      <c r="K1005" t="s">
         <v>4910</v>
       </c>
-      <c r="K1005" t="s">
+      <c r="L1005" t="s">
         <v>4911</v>
-      </c>
-      <c r="L1005" t="s">
-        <v>4912</v>
       </c>
     </row>
     <row r="1006" spans="1:12" ht="195" hidden="1" x14ac:dyDescent="0.25">
@@ -52749,22 +52749,22 @@
         <v>2</v>
       </c>
       <c r="E1006" t="s">
+        <v>4912</v>
+      </c>
+      <c r="F1006" t="s">
         <v>4913</v>
       </c>
-      <c r="F1006" t="s">
+      <c r="G1006" t="s">
         <v>4914</v>
       </c>
-      <c r="G1006" t="s">
+      <c r="H1006" t="s">
         <v>4915</v>
       </c>
-      <c r="H1006" t="s">
+      <c r="J1006" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1006" s="1" t="s">
         <v>4916</v>
-      </c>
-      <c r="J1006" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1006" s="1" t="s">
-        <v>4917</v>
       </c>
       <c r="L1006" t="s">
         <v>20</v>
@@ -52784,25 +52784,25 @@
         <v>1</v>
       </c>
       <c r="E1007" t="s">
+        <v>4917</v>
+      </c>
+      <c r="F1007" t="s">
         <v>4918</v>
       </c>
-      <c r="F1007" t="s">
+      <c r="G1007" t="s">
         <v>4919</v>
       </c>
-      <c r="G1007" t="s">
+      <c r="H1007" t="s">
         <v>4920</v>
       </c>
-      <c r="H1007" t="s">
+      <c r="J1007" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1007" s="1" t="s">
         <v>4921</v>
       </c>
-      <c r="J1007" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1007" s="1" t="s">
-        <v>4922</v>
-      </c>
       <c r="L1007" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1008" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
@@ -52819,25 +52819,25 @@
         <v>5</v>
       </c>
       <c r="E1008" t="s">
+        <v>4922</v>
+      </c>
+      <c r="F1008" t="s">
         <v>4923</v>
       </c>
-      <c r="F1008" t="s">
+      <c r="G1008" t="s">
         <v>4924</v>
       </c>
-      <c r="G1008" t="s">
+      <c r="H1008" t="s">
         <v>4925</v>
       </c>
-      <c r="H1008" t="s">
-        <v>4926</v>
-      </c>
       <c r="J1008" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="K1008" s="1" t="s">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="L1008" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1009" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -52854,25 +52854,25 @@
         <v>1</v>
       </c>
       <c r="E1009" t="s">
+        <v>4926</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>4918</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>4919</v>
+      </c>
+      <c r="H1009" t="s">
         <v>4927</v>
       </c>
-      <c r="F1009" t="s">
-        <v>4919</v>
-      </c>
-      <c r="G1009" t="s">
-        <v>4920</v>
-      </c>
-      <c r="H1009" t="s">
+      <c r="J1009" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1009" s="1" t="s">
         <v>4928</v>
       </c>
-      <c r="J1009" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1009" s="1" t="s">
-        <v>4929</v>
-      </c>
       <c r="L1009" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1010" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
@@ -52889,25 +52889,25 @@
         <v>5</v>
       </c>
       <c r="E1010" t="s">
+        <v>4929</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>4924</v>
+      </c>
+      <c r="H1010" t="s">
         <v>4930</v>
       </c>
-      <c r="F1010" t="s">
-        <v>4924</v>
-      </c>
-      <c r="G1010" t="s">
-        <v>4925</v>
-      </c>
-      <c r="H1010" t="s">
+      <c r="J1010" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1010" s="1" t="s">
         <v>4931</v>
       </c>
-      <c r="J1010" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1010" s="1" t="s">
-        <v>4932</v>
-      </c>
       <c r="L1010" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1011" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -52924,25 +52924,25 @@
         <v>2</v>
       </c>
       <c r="E1011" t="s">
+        <v>4932</v>
+      </c>
+      <c r="F1011" t="s">
         <v>4933</v>
       </c>
-      <c r="F1011" t="s">
+      <c r="G1011" t="s">
         <v>4934</v>
       </c>
-      <c r="G1011" t="s">
+      <c r="H1011" t="s">
         <v>4935</v>
       </c>
-      <c r="H1011" t="s">
+      <c r="J1011" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1011" t="s">
         <v>4936</v>
       </c>
-      <c r="J1011" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1011" t="s">
-        <v>4937</v>
-      </c>
       <c r="L1011" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1012" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -52959,25 +52959,25 @@
         <v>1</v>
       </c>
       <c r="E1012" t="s">
+        <v>4937</v>
+      </c>
+      <c r="F1012" t="s">
         <v>4938</v>
       </c>
-      <c r="F1012" t="s">
+      <c r="G1012" t="s">
         <v>4939</v>
       </c>
-      <c r="G1012" t="s">
+      <c r="H1012" t="s">
         <v>4940</v>
       </c>
-      <c r="H1012" t="s">
+      <c r="J1012" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1012" t="s">
         <v>4941</v>
       </c>
-      <c r="J1012" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1012" t="s">
-        <v>4942</v>
-      </c>
       <c r="L1012" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1013" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -52994,25 +52994,25 @@
         <v>1</v>
       </c>
       <c r="E1013" t="s">
+        <v>4942</v>
+      </c>
+      <c r="F1013" t="s">
         <v>4943</v>
       </c>
-      <c r="F1013" t="s">
+      <c r="G1013" t="s">
         <v>4944</v>
       </c>
-      <c r="G1013" t="s">
+      <c r="H1013" t="s">
         <v>4945</v>
       </c>
-      <c r="H1013" t="s">
+      <c r="J1013" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1013" t="s">
         <v>4946</v>
       </c>
-      <c r="J1013" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1013" t="s">
-        <v>4947</v>
-      </c>
       <c r="L1013" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1014" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53029,25 +53029,25 @@
         <v>1</v>
       </c>
       <c r="E1014" t="s">
+        <v>4947</v>
+      </c>
+      <c r="F1014" t="s">
         <v>4948</v>
       </c>
-      <c r="F1014" t="s">
+      <c r="G1014" t="s">
         <v>4949</v>
       </c>
-      <c r="G1014" t="s">
+      <c r="H1014" t="s">
         <v>4950</v>
       </c>
-      <c r="H1014" t="s">
+      <c r="J1014" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1014" t="s">
         <v>4951</v>
       </c>
-      <c r="J1014" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1014" t="s">
-        <v>4952</v>
-      </c>
       <c r="L1014" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1015" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53064,25 +53064,25 @@
         <v>1</v>
       </c>
       <c r="E1015" t="s">
+        <v>4952</v>
+      </c>
+      <c r="F1015" t="s">
         <v>4953</v>
       </c>
-      <c r="F1015" t="s">
+      <c r="G1015" t="s">
         <v>4954</v>
       </c>
-      <c r="G1015" t="s">
+      <c r="H1015" t="s">
         <v>4955</v>
       </c>
-      <c r="H1015" t="s">
+      <c r="J1015" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1015" t="s">
         <v>4956</v>
       </c>
-      <c r="J1015" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1015" t="s">
-        <v>4957</v>
-      </c>
       <c r="L1015" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1016" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53099,25 +53099,25 @@
         <v>1</v>
       </c>
       <c r="E1016" t="s">
+        <v>4957</v>
+      </c>
+      <c r="F1016" t="s">
         <v>4958</v>
       </c>
-      <c r="F1016" t="s">
+      <c r="G1016" t="s">
         <v>4959</v>
       </c>
-      <c r="G1016" t="s">
+      <c r="H1016" t="s">
         <v>4960</v>
       </c>
-      <c r="H1016" t="s">
+      <c r="J1016" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1016" t="s">
         <v>4961</v>
       </c>
-      <c r="J1016" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1016" t="s">
-        <v>4962</v>
-      </c>
       <c r="L1016" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1017" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53134,25 +53134,25 @@
         <v>2</v>
       </c>
       <c r="E1017" t="s">
+        <v>4962</v>
+      </c>
+      <c r="F1017" t="s">
         <v>4963</v>
       </c>
-      <c r="F1017" t="s">
+      <c r="G1017" t="s">
+        <v>4963</v>
+      </c>
+      <c r="H1017" t="s">
         <v>4964</v>
       </c>
-      <c r="G1017" t="s">
-        <v>4964</v>
-      </c>
-      <c r="H1017" t="s">
-        <v>4965</v>
-      </c>
       <c r="J1017" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="K1017" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="L1017" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53169,25 +53169,25 @@
         <v>3</v>
       </c>
       <c r="E1018" t="s">
+        <v>4965</v>
+      </c>
+      <c r="F1018" t="s">
         <v>4966</v>
       </c>
-      <c r="F1018" t="s">
+      <c r="G1018" t="s">
+        <v>4966</v>
+      </c>
+      <c r="H1018" t="s">
         <v>4967</v>
       </c>
-      <c r="G1018" t="s">
-        <v>4967</v>
-      </c>
-      <c r="H1018" t="s">
-        <v>4968</v>
-      </c>
       <c r="J1018" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="K1018" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="L1018" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1019" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53204,25 +53204,25 @@
         <v>1</v>
       </c>
       <c r="E1019" t="s">
+        <v>4968</v>
+      </c>
+      <c r="F1019" t="s">
         <v>4969</v>
       </c>
-      <c r="F1019" t="s">
+      <c r="G1019" t="s">
+        <v>4969</v>
+      </c>
+      <c r="H1019" t="s">
         <v>4970</v>
       </c>
-      <c r="G1019" t="s">
-        <v>4970</v>
-      </c>
-      <c r="H1019" t="s">
+      <c r="J1019" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1019" t="s">
         <v>4971</v>
       </c>
-      <c r="J1019" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1019" t="s">
-        <v>4972</v>
-      </c>
       <c r="L1019" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1020" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53239,25 +53239,25 @@
         <v>2</v>
       </c>
       <c r="E1020" t="s">
+        <v>4972</v>
+      </c>
+      <c r="F1020" t="s">
         <v>4973</v>
       </c>
-      <c r="F1020" t="s">
+      <c r="G1020" t="s">
+        <v>4973</v>
+      </c>
+      <c r="H1020" t="s">
         <v>4974</v>
       </c>
-      <c r="G1020" t="s">
-        <v>4974</v>
-      </c>
-      <c r="H1020" t="s">
-        <v>4975</v>
-      </c>
       <c r="J1020" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="K1020" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
       <c r="L1020" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1021" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53274,25 +53274,25 @@
         <v>3</v>
       </c>
       <c r="E1021" t="s">
+        <v>4975</v>
+      </c>
+      <c r="F1021" t="s">
         <v>4976</v>
       </c>
-      <c r="F1021" t="s">
+      <c r="G1021" t="s">
+        <v>4976</v>
+      </c>
+      <c r="H1021" t="s">
         <v>4977</v>
       </c>
-      <c r="G1021" t="s">
-        <v>4977</v>
-      </c>
-      <c r="H1021" t="s">
-        <v>4978</v>
-      </c>
       <c r="J1021" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="K1021" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
       <c r="L1021" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1022" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53309,25 +53309,25 @@
         <v>1</v>
       </c>
       <c r="E1022" t="s">
+        <v>4978</v>
+      </c>
+      <c r="F1022" t="s">
         <v>4979</v>
       </c>
-      <c r="F1022" t="s">
+      <c r="G1022" t="s">
+        <v>4979</v>
+      </c>
+      <c r="H1022" t="s">
         <v>4980</v>
       </c>
-      <c r="G1022" t="s">
-        <v>4980</v>
-      </c>
-      <c r="H1022" t="s">
+      <c r="J1022" t="s">
+        <v>4909</v>
+      </c>
+      <c r="K1022" t="s">
         <v>4981</v>
       </c>
-      <c r="J1022" t="s">
-        <v>4910</v>
-      </c>
-      <c r="K1022" t="s">
-        <v>4982</v>
-      </c>
       <c r="L1022" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1023" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53344,25 +53344,25 @@
         <v>2</v>
       </c>
       <c r="E1023" t="s">
+        <v>4982</v>
+      </c>
+      <c r="F1023" t="s">
         <v>4983</v>
       </c>
-      <c r="F1023" t="s">
+      <c r="G1023" t="s">
+        <v>4983</v>
+      </c>
+      <c r="H1023" t="s">
         <v>4984</v>
       </c>
-      <c r="G1023" t="s">
-        <v>4984</v>
-      </c>
-      <c r="H1023" t="s">
-        <v>4985</v>
-      </c>
       <c r="J1023" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="K1023" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="L1023" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1024" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -53379,30 +53379,30 @@
         <v>3</v>
       </c>
       <c r="E1024" t="s">
+        <v>4985</v>
+      </c>
+      <c r="F1024" t="s">
         <v>4986</v>
       </c>
-      <c r="F1024" t="s">
+      <c r="G1024" t="s">
+        <v>4986</v>
+      </c>
+      <c r="H1024" t="s">
         <v>4987</v>
       </c>
-      <c r="G1024" t="s">
-        <v>4987</v>
-      </c>
-      <c r="H1024" t="s">
-        <v>4988</v>
-      </c>
       <c r="J1024" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
       <c r="K1024" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
       <c r="L1024" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="1025" spans="1:12" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1025" t="s">
         <v>13</v>
@@ -53414,22 +53414,22 @@
         <v>3</v>
       </c>
       <c r="E1025" t="s">
+        <v>4989</v>
+      </c>
+      <c r="F1025" t="s">
         <v>4990</v>
       </c>
-      <c r="F1025" t="s">
+      <c r="G1025" t="s">
         <v>4991</v>
       </c>
-      <c r="G1025" t="s">
+      <c r="H1025" t="s">
         <v>4992</v>
       </c>
-      <c r="H1025" t="s">
+      <c r="J1025" t="s">
         <v>4993</v>
       </c>
-      <c r="J1025" t="s">
+      <c r="K1025" s="1" t="s">
         <v>4994</v>
-      </c>
-      <c r="K1025" s="1" t="s">
-        <v>4995</v>
       </c>
       <c r="L1025" t="s">
         <v>322</v>
@@ -53437,7 +53437,7 @@
     </row>
     <row r="1026" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1026" t="s">
         <v>13</v>
@@ -53449,22 +53449,22 @@
         <v>1</v>
       </c>
       <c r="E1026" t="s">
+        <v>4995</v>
+      </c>
+      <c r="F1026" t="s">
         <v>4996</v>
       </c>
-      <c r="F1026" t="s">
+      <c r="G1026" t="s">
         <v>4997</v>
       </c>
-      <c r="G1026" t="s">
+      <c r="H1026" t="s">
         <v>4998</v>
       </c>
-      <c r="H1026" t="s">
+      <c r="J1026" t="s">
         <v>4999</v>
       </c>
-      <c r="J1026" t="s">
+      <c r="K1026" s="1" t="s">
         <v>5000</v>
-      </c>
-      <c r="K1026" s="1" t="s">
-        <v>5001</v>
       </c>
       <c r="L1026" t="s">
         <v>322</v>
@@ -53472,7 +53472,7 @@
     </row>
     <row r="1027" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1027" t="s">
         <v>13</v>
@@ -53484,22 +53484,22 @@
         <v>3</v>
       </c>
       <c r="E1027" t="s">
+        <v>5001</v>
+      </c>
+      <c r="F1027" t="s">
         <v>5002</v>
       </c>
-      <c r="F1027" t="s">
+      <c r="G1027" t="s">
         <v>5003</v>
       </c>
-      <c r="G1027" t="s">
+      <c r="H1027" t="s">
         <v>5004</v>
-      </c>
-      <c r="H1027" t="s">
-        <v>5005</v>
       </c>
       <c r="J1027" t="s">
         <v>1443</v>
       </c>
       <c r="K1027" s="1" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="L1027" t="s">
         <v>322</v>
@@ -53507,7 +53507,7 @@
     </row>
     <row r="1028" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1028" t="s">
         <v>13</v>
@@ -53519,22 +53519,22 @@
         <v>1</v>
       </c>
       <c r="E1028" t="s">
+        <v>5006</v>
+      </c>
+      <c r="F1028" t="s">
         <v>5007</v>
       </c>
-      <c r="F1028" t="s">
+      <c r="G1028" t="s">
         <v>5008</v>
       </c>
-      <c r="G1028" t="s">
+      <c r="H1028" t="s">
         <v>5009</v>
       </c>
-      <c r="H1028" t="s">
+      <c r="J1028" t="s">
         <v>5010</v>
       </c>
-      <c r="J1028" t="s">
+      <c r="K1028" s="1" t="s">
         <v>5011</v>
-      </c>
-      <c r="K1028" s="1" t="s">
-        <v>5012</v>
       </c>
       <c r="L1028" t="s">
         <v>322</v>
@@ -53542,7 +53542,7 @@
     </row>
     <row r="1029" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1029" t="s">
         <v>13</v>
@@ -53554,22 +53554,22 @@
         <v>2</v>
       </c>
       <c r="E1029" t="s">
+        <v>5012</v>
+      </c>
+      <c r="F1029" t="s">
         <v>5013</v>
       </c>
-      <c r="F1029" t="s">
+      <c r="G1029" t="s">
         <v>5014</v>
       </c>
-      <c r="G1029" t="s">
+      <c r="H1029" t="s">
         <v>5015</v>
       </c>
-      <c r="H1029" t="s">
+      <c r="J1029" t="s">
         <v>5016</v>
       </c>
-      <c r="J1029" t="s">
+      <c r="K1029" s="1" t="s">
         <v>5017</v>
-      </c>
-      <c r="K1029" s="1" t="s">
-        <v>5018</v>
       </c>
       <c r="L1029" t="s">
         <v>322</v>
@@ -53577,7 +53577,7 @@
     </row>
     <row r="1030" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1030" t="s">
         <v>13</v>
@@ -53589,22 +53589,22 @@
         <v>3</v>
       </c>
       <c r="E1030" t="s">
+        <v>5018</v>
+      </c>
+      <c r="F1030" t="s">
         <v>5019</v>
       </c>
-      <c r="F1030" t="s">
+      <c r="G1030" t="s">
         <v>5020</v>
       </c>
-      <c r="G1030" t="s">
+      <c r="H1030" t="s">
         <v>5021</v>
       </c>
-      <c r="H1030" t="s">
+      <c r="J1030" t="s">
         <v>5022</v>
       </c>
-      <c r="J1030" t="s">
+      <c r="K1030" s="1" t="s">
         <v>5023</v>
-      </c>
-      <c r="K1030" s="1" t="s">
-        <v>5024</v>
       </c>
       <c r="L1030" t="s">
         <v>322</v>
@@ -53612,7 +53612,7 @@
     </row>
     <row r="1031" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1031" t="s">
         <v>13</v>
@@ -53624,22 +53624,22 @@
         <v>5</v>
       </c>
       <c r="E1031" t="s">
+        <v>5024</v>
+      </c>
+      <c r="F1031" t="s">
         <v>5025</v>
       </c>
-      <c r="F1031" t="s">
+      <c r="G1031" t="s">
         <v>5026</v>
       </c>
-      <c r="G1031" t="s">
+      <c r="H1031" t="s">
         <v>5027</v>
       </c>
-      <c r="H1031" t="s">
+      <c r="J1031" t="s">
         <v>5028</v>
       </c>
-      <c r="J1031" t="s">
+      <c r="K1031" s="1" t="s">
         <v>5029</v>
-      </c>
-      <c r="K1031" s="1" t="s">
-        <v>5030</v>
       </c>
       <c r="L1031" t="s">
         <v>322</v>
@@ -53647,7 +53647,7 @@
     </row>
     <row r="1032" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1032" t="s">
         <v>13</v>
@@ -53659,22 +53659,22 @@
         <v>6</v>
       </c>
       <c r="E1032" t="s">
+        <v>5030</v>
+      </c>
+      <c r="F1032" t="s">
         <v>5031</v>
       </c>
-      <c r="F1032" t="s">
+      <c r="G1032" t="s">
         <v>5032</v>
       </c>
-      <c r="G1032" t="s">
+      <c r="H1032" t="s">
         <v>5033</v>
       </c>
-      <c r="H1032" t="s">
+      <c r="J1032" t="s">
+        <v>5028</v>
+      </c>
+      <c r="K1032" s="1" t="s">
         <v>5034</v>
-      </c>
-      <c r="J1032" t="s">
-        <v>5029</v>
-      </c>
-      <c r="K1032" s="1" t="s">
-        <v>5035</v>
       </c>
       <c r="L1032" t="s">
         <v>322</v>
@@ -53682,7 +53682,7 @@
     </row>
     <row r="1033" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1033" t="s">
         <v>13</v>
@@ -53694,22 +53694,22 @@
         <v>7</v>
       </c>
       <c r="E1033" t="s">
+        <v>5035</v>
+      </c>
+      <c r="F1033" t="s">
         <v>5036</v>
       </c>
-      <c r="F1033" t="s">
+      <c r="G1033" t="s">
         <v>5037</v>
       </c>
-      <c r="G1033" t="s">
+      <c r="H1033" t="s">
         <v>5038</v>
       </c>
-      <c r="H1033" t="s">
+      <c r="J1033" t="s">
         <v>5039</v>
       </c>
-      <c r="J1033" t="s">
+      <c r="K1033" s="1" t="s">
         <v>5040</v>
-      </c>
-      <c r="K1033" s="1" t="s">
-        <v>5041</v>
       </c>
       <c r="L1033" t="s">
         <v>322</v>
@@ -53717,7 +53717,7 @@
     </row>
     <row r="1034" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1034" t="s">
         <v>13</v>
@@ -53729,22 +53729,22 @@
         <v>8</v>
       </c>
       <c r="E1034" t="s">
+        <v>5041</v>
+      </c>
+      <c r="F1034" t="s">
         <v>5042</v>
       </c>
-      <c r="F1034" t="s">
+      <c r="G1034" t="s">
         <v>5043</v>
       </c>
-      <c r="G1034" t="s">
+      <c r="H1034" t="s">
         <v>5044</v>
       </c>
-      <c r="H1034" t="s">
-        <v>5045</v>
-      </c>
       <c r="J1034" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="K1034" s="1" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="L1034" t="s">
         <v>322</v>
@@ -53752,7 +53752,7 @@
     </row>
     <row r="1035" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1035" t="s">
         <v>13</v>
@@ -53764,22 +53764,22 @@
         <v>9</v>
       </c>
       <c r="E1035" t="s">
+        <v>5045</v>
+      </c>
+      <c r="F1035" t="s">
         <v>5046</v>
       </c>
-      <c r="F1035" t="s">
+      <c r="G1035" t="s">
         <v>5047</v>
       </c>
-      <c r="G1035" t="s">
+      <c r="H1035" t="s">
         <v>5048</v>
       </c>
-      <c r="H1035" t="s">
+      <c r="J1035" t="s">
+        <v>5039</v>
+      </c>
+      <c r="K1035" s="1" t="s">
         <v>5049</v>
-      </c>
-      <c r="J1035" t="s">
-        <v>5040</v>
-      </c>
-      <c r="K1035" s="1" t="s">
-        <v>5050</v>
       </c>
       <c r="L1035" t="s">
         <v>322</v>
@@ -53787,7 +53787,7 @@
     </row>
     <row r="1036" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1036" t="s">
         <v>13</v>
@@ -53799,22 +53799,22 @@
         <v>10</v>
       </c>
       <c r="E1036" t="s">
+        <v>5050</v>
+      </c>
+      <c r="F1036" t="s">
         <v>5051</v>
       </c>
-      <c r="F1036" t="s">
+      <c r="G1036" t="s">
         <v>5052</v>
       </c>
-      <c r="G1036" t="s">
+      <c r="H1036" t="s">
         <v>5053</v>
       </c>
-      <c r="H1036" t="s">
-        <v>5054</v>
-      </c>
       <c r="J1036" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="K1036" s="1" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="L1036" t="s">
         <v>322</v>
@@ -53822,7 +53822,7 @@
     </row>
     <row r="1037" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1037" t="s">
         <v>13</v>
@@ -53834,22 +53834,22 @@
         <v>11</v>
       </c>
       <c r="E1037" t="s">
+        <v>5054</v>
+      </c>
+      <c r="F1037" t="s">
         <v>5055</v>
       </c>
-      <c r="F1037" t="s">
+      <c r="G1037" t="s">
         <v>5056</v>
       </c>
-      <c r="G1037" t="s">
+      <c r="H1037" t="s">
         <v>5057</v>
       </c>
-      <c r="H1037" t="s">
-        <v>5058</v>
-      </c>
       <c r="J1037" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="K1037" s="1" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
       <c r="L1037" t="s">
         <v>322</v>
@@ -53857,7 +53857,7 @@
     </row>
     <row r="1038" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1038" t="s">
         <v>13</v>
@@ -53869,22 +53869,22 @@
         <v>1</v>
       </c>
       <c r="E1038" t="s">
+        <v>5058</v>
+      </c>
+      <c r="F1038" t="s">
         <v>5059</v>
       </c>
-      <c r="F1038" t="s">
+      <c r="G1038" t="s">
         <v>5060</v>
       </c>
-      <c r="G1038" t="s">
+      <c r="H1038" t="s">
         <v>5061</v>
       </c>
-      <c r="H1038" t="s">
+      <c r="J1038" t="s">
         <v>5062</v>
       </c>
-      <c r="J1038" t="s">
+      <c r="K1038" s="1" t="s">
         <v>5063</v>
-      </c>
-      <c r="K1038" s="1" t="s">
-        <v>5064</v>
       </c>
       <c r="L1038" t="s">
         <v>322</v>
@@ -53892,7 +53892,7 @@
     </row>
     <row r="1039" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1039" t="s">
         <v>13</v>
@@ -53904,21 +53904,21 @@
         <v>1</v>
       </c>
       <c r="E1039" t="s">
+        <v>5064</v>
+      </c>
+      <c r="F1039" t="s">
         <v>5065</v>
       </c>
-      <c r="F1039" t="s">
+      <c r="G1039" t="s">
+        <v>5065</v>
+      </c>
+      <c r="H1039" t="s">
         <v>5066</v>
-      </c>
-      <c r="G1039" t="s">
-        <v>5066</v>
-      </c>
-      <c r="H1039" t="s">
-        <v>5067</v>
       </c>
     </row>
     <row r="1040" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1040" t="s">
         <v>13</v>
@@ -53930,21 +53930,21 @@
         <v>2</v>
       </c>
       <c r="E1040" t="s">
+        <v>5067</v>
+      </c>
+      <c r="F1040" t="s">
         <v>5068</v>
       </c>
-      <c r="F1040" t="s">
+      <c r="G1040" t="s">
+        <v>5068</v>
+      </c>
+      <c r="H1040" t="s">
         <v>5069</v>
-      </c>
-      <c r="G1040" t="s">
-        <v>5069</v>
-      </c>
-      <c r="H1040" t="s">
-        <v>5070</v>
       </c>
     </row>
     <row r="1041" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1041" t="s">
         <v>13</v>
@@ -53956,21 +53956,21 @@
         <v>6</v>
       </c>
       <c r="E1041" t="s">
+        <v>5070</v>
+      </c>
+      <c r="F1041" t="s">
         <v>5071</v>
       </c>
-      <c r="F1041" t="s">
+      <c r="G1041" t="s">
+        <v>5071</v>
+      </c>
+      <c r="H1041" t="s">
         <v>5072</v>
-      </c>
-      <c r="G1041" t="s">
-        <v>5072</v>
-      </c>
-      <c r="H1041" t="s">
-        <v>5073</v>
       </c>
     </row>
     <row r="1042" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1042" t="s">
         <v>13</v>
@@ -53982,18 +53982,18 @@
         <v>9</v>
       </c>
       <c r="E1042" t="s">
+        <v>5073</v>
+      </c>
+      <c r="G1042" t="s">
         <v>5074</v>
       </c>
-      <c r="G1042" t="s">
+      <c r="H1042" t="s">
         <v>5075</v>
-      </c>
-      <c r="H1042" t="s">
-        <v>5076</v>
       </c>
     </row>
     <row r="1043" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1043" t="s">
         <v>13</v>
@@ -54005,22 +54005,22 @@
         <v>9</v>
       </c>
       <c r="E1043" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
       <c r="F1043" t="s">
+        <v>5076</v>
+      </c>
+      <c r="G1043" t="s">
         <v>5077</v>
       </c>
-      <c r="G1043" t="s">
+      <c r="H1043" t="s">
         <v>5078</v>
       </c>
-      <c r="H1043" t="s">
+      <c r="J1043" t="s">
         <v>5079</v>
       </c>
-      <c r="J1043" t="s">
+      <c r="K1043" s="1" t="s">
         <v>5080</v>
-      </c>
-      <c r="K1043" s="1" t="s">
-        <v>5081</v>
       </c>
       <c r="L1043" t="s">
         <v>322</v>
@@ -54028,7 +54028,7 @@
     </row>
     <row r="1044" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1044" t="s">
         <v>13</v>
@@ -54040,22 +54040,22 @@
         <v>10</v>
       </c>
       <c r="E1044" t="s">
+        <v>5081</v>
+      </c>
+      <c r="F1044" t="s">
         <v>5082</v>
       </c>
-      <c r="F1044" t="s">
+      <c r="G1044" t="s">
         <v>5083</v>
       </c>
-      <c r="G1044" t="s">
+      <c r="H1044" t="s">
         <v>5084</v>
       </c>
-      <c r="H1044" t="s">
+      <c r="J1044" t="s">
         <v>5085</v>
       </c>
-      <c r="J1044" t="s">
+      <c r="K1044" s="1" t="s">
         <v>5086</v>
-      </c>
-      <c r="K1044" s="1" t="s">
-        <v>5087</v>
       </c>
       <c r="L1044" t="s">
         <v>322</v>
@@ -54063,7 +54063,7 @@
     </row>
     <row r="1045" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1045" t="s">
         <v>13</v>
@@ -54075,22 +54075,22 @@
         <v>11</v>
       </c>
       <c r="E1045" t="s">
+        <v>5087</v>
+      </c>
+      <c r="F1045" t="s">
         <v>5088</v>
       </c>
-      <c r="F1045" t="s">
+      <c r="G1045" t="s">
         <v>5089</v>
       </c>
-      <c r="G1045" t="s">
+      <c r="H1045" t="s">
         <v>5090</v>
       </c>
-      <c r="H1045" t="s">
+      <c r="J1045" t="s">
         <v>5091</v>
       </c>
-      <c r="J1045" t="s">
+      <c r="K1045" s="1" t="s">
         <v>5092</v>
-      </c>
-      <c r="K1045" s="1" t="s">
-        <v>5093</v>
       </c>
       <c r="L1045" t="s">
         <v>322</v>
@@ -54098,7 +54098,7 @@
     </row>
     <row r="1046" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1046" t="s">
         <v>13</v>
@@ -54110,22 +54110,22 @@
         <v>12</v>
       </c>
       <c r="E1046" t="s">
+        <v>5093</v>
+      </c>
+      <c r="F1046" t="s">
         <v>5094</v>
       </c>
-      <c r="F1046" t="s">
+      <c r="G1046" t="s">
         <v>5095</v>
       </c>
-      <c r="G1046" t="s">
+      <c r="H1046" t="s">
         <v>5096</v>
       </c>
-      <c r="H1046" t="s">
+      <c r="J1046" t="s">
         <v>5097</v>
       </c>
-      <c r="J1046" t="s">
+      <c r="K1046" s="1" t="s">
         <v>5098</v>
-      </c>
-      <c r="K1046" s="1" t="s">
-        <v>5099</v>
       </c>
       <c r="L1046" t="s">
         <v>322</v>
@@ -54133,7 +54133,7 @@
     </row>
     <row r="1047" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1047" t="s">
         <v>13</v>
@@ -54145,22 +54145,22 @@
         <v>2</v>
       </c>
       <c r="E1047" t="s">
+        <v>5099</v>
+      </c>
+      <c r="F1047" t="s">
         <v>5100</v>
       </c>
-      <c r="F1047" t="s">
+      <c r="G1047" t="s">
         <v>5101</v>
       </c>
-      <c r="G1047" t="s">
+      <c r="H1047" t="s">
         <v>5102</v>
       </c>
-      <c r="H1047" t="s">
+      <c r="J1047" t="s">
         <v>5103</v>
       </c>
-      <c r="J1047" t="s">
+      <c r="K1047" s="1" t="s">
         <v>5104</v>
-      </c>
-      <c r="K1047" s="1" t="s">
-        <v>5105</v>
       </c>
       <c r="L1047" t="s">
         <v>322</v>
@@ -54168,7 +54168,7 @@
     </row>
     <row r="1048" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1048" t="s">
         <v>13</v>
@@ -54180,22 +54180,22 @@
         <v>3</v>
       </c>
       <c r="E1048" t="s">
+        <v>5105</v>
+      </c>
+      <c r="F1048" t="s">
         <v>5106</v>
       </c>
-      <c r="F1048" t="s">
+      <c r="G1048" t="s">
         <v>5107</v>
       </c>
-      <c r="G1048" t="s">
+      <c r="H1048" t="s">
         <v>5108</v>
       </c>
-      <c r="H1048" t="s">
+      <c r="J1048" t="s">
         <v>5109</v>
       </c>
-      <c r="J1048" t="s">
+      <c r="K1048" s="1" t="s">
         <v>5110</v>
-      </c>
-      <c r="K1048" s="1" t="s">
-        <v>5111</v>
       </c>
       <c r="L1048" t="s">
         <v>322</v>
@@ -54203,7 +54203,7 @@
     </row>
     <row r="1049" spans="1:12" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1049" t="s">
         <v>13</v>
@@ -54215,22 +54215,22 @@
         <v>4</v>
       </c>
       <c r="E1049" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F1049" t="s">
         <v>5112</v>
       </c>
-      <c r="F1049" t="s">
+      <c r="G1049" t="s">
         <v>5113</v>
       </c>
-      <c r="G1049" t="s">
+      <c r="H1049" t="s">
         <v>5114</v>
       </c>
-      <c r="H1049" t="s">
+      <c r="J1049" t="s">
+        <v>5109</v>
+      </c>
+      <c r="K1049" s="1" t="s">
         <v>5115</v>
-      </c>
-      <c r="J1049" t="s">
-        <v>5110</v>
-      </c>
-      <c r="K1049" s="1" t="s">
-        <v>5116</v>
       </c>
       <c r="L1049" t="s">
         <v>322</v>
@@ -54238,7 +54238,7 @@
     </row>
     <row r="1050" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1050" t="s">
         <v>13</v>
@@ -54250,22 +54250,22 @@
         <v>5</v>
       </c>
       <c r="E1050" t="s">
+        <v>5116</v>
+      </c>
+      <c r="F1050" t="s">
         <v>5117</v>
       </c>
-      <c r="F1050" t="s">
+      <c r="G1050" t="s">
         <v>5118</v>
       </c>
-      <c r="G1050" t="s">
+      <c r="H1050" t="s">
         <v>5119</v>
       </c>
-      <c r="H1050" t="s">
+      <c r="J1050" t="s">
         <v>5120</v>
       </c>
-      <c r="J1050" t="s">
+      <c r="K1050" s="1" t="s">
         <v>5121</v>
-      </c>
-      <c r="K1050" s="1" t="s">
-        <v>5122</v>
       </c>
       <c r="L1050" t="s">
         <v>322</v>
@@ -54273,7 +54273,7 @@
     </row>
     <row r="1051" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1051" t="s">
         <v>13</v>
@@ -54285,22 +54285,22 @@
         <v>1</v>
       </c>
       <c r="E1051" t="s">
+        <v>5122</v>
+      </c>
+      <c r="F1051" t="s">
         <v>5123</v>
       </c>
-      <c r="F1051" t="s">
+      <c r="G1051" t="s">
         <v>5124</v>
       </c>
-      <c r="G1051" t="s">
+      <c r="H1051" t="s">
         <v>5125</v>
       </c>
-      <c r="H1051" t="s">
+      <c r="J1051" t="s">
         <v>5126</v>
       </c>
-      <c r="J1051" t="s">
+      <c r="K1051" s="1" t="s">
         <v>5127</v>
-      </c>
-      <c r="K1051" s="1" t="s">
-        <v>5128</v>
       </c>
       <c r="L1051" t="s">
         <v>322</v>
@@ -54308,7 +54308,7 @@
     </row>
     <row r="1052" spans="1:12" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1052" t="s">
         <v>13</v>
@@ -54320,22 +54320,22 @@
         <v>2</v>
       </c>
       <c r="E1052" t="s">
+        <v>5128</v>
+      </c>
+      <c r="F1052" t="s">
         <v>5129</v>
       </c>
-      <c r="F1052" t="s">
+      <c r="G1052" t="s">
         <v>5130</v>
       </c>
-      <c r="G1052" t="s">
+      <c r="H1052" t="s">
         <v>5131</v>
       </c>
-      <c r="H1052" t="s">
-        <v>5132</v>
-      </c>
       <c r="J1052" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K1052" s="1" t="s">
         <v>5127</v>
-      </c>
-      <c r="K1052" s="1" t="s">
-        <v>5128</v>
       </c>
       <c r="L1052" t="s">
         <v>322</v>
@@ -54352,7 +54352,7 @@
         <v>1</v>
       </c>
       <c r="E1053" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="1054" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -54366,12 +54366,12 @@
         <v>1</v>
       </c>
       <c r="E1054" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="1055" spans="1:12" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1055" t="s">
         <v>13</v>
@@ -54383,22 +54383,22 @@
         <v>3</v>
       </c>
       <c r="E1055" t="s">
+        <v>5133</v>
+      </c>
+      <c r="F1055" t="s">
         <v>5134</v>
       </c>
-      <c r="F1055" t="s">
+      <c r="G1055" t="s">
         <v>5135</v>
       </c>
-      <c r="G1055" t="s">
+      <c r="H1055" t="s">
         <v>5136</v>
       </c>
-      <c r="H1055" t="s">
+      <c r="J1055" t="s">
         <v>5137</v>
       </c>
-      <c r="J1055" t="s">
+      <c r="K1055" s="1" t="s">
         <v>5138</v>
-      </c>
-      <c r="K1055" s="1" t="s">
-        <v>5139</v>
       </c>
       <c r="L1055" t="s">
         <v>322</v>
@@ -54406,7 +54406,7 @@
     </row>
     <row r="1056" spans="1:12" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="B1056" t="s">
         <v>13</v>
@@ -54418,22 +54418,22 @@
         <v>1</v>
       </c>
       <c r="E1056" t="s">
+        <v>5139</v>
+      </c>
+      <c r="F1056" t="s">
         <v>5140</v>
       </c>
-      <c r="F1056" t="s">
+      <c r="G1056" t="s">
         <v>5141</v>
       </c>
-      <c r="G1056" t="s">
+      <c r="H1056" t="s">
         <v>5142</v>
       </c>
-      <c r="H1056" t="s">
+      <c r="J1056" t="s">
         <v>5143</v>
       </c>
-      <c r="J1056" t="s">
+      <c r="K1056" s="1" t="s">
         <v>5144</v>
-      </c>
-      <c r="K1056" s="1" t="s">
-        <v>5145</v>
       </c>
       <c r="L1056" t="s">
         <v>322</v>

--- a/Expresiones.xlsx
+++ b/Expresiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4D81C9-BE1E-45F5-BDC8-FF8AFCA75628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A7642B-13EA-4F6C-9A3C-2D2B9AD95B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63F1D9FA-422E-43ED-AFE6-D09079F0EF12}"/>
   </bookViews>
@@ -17369,7 +17369,7 @@
   <dimension ref="A1:L1056"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H840" sqref="H840"/>
+      <selection activeCell="J871" sqref="J871"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
